--- a/Tsudanuma Role assignments.xlsx
+++ b/Tsudanuma Role assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B61AAB-F3E0-4480-A11C-A0EBE9A9849C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E6E65-05C8-416F-AF20-109BD9DDFE27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3590" yWindow="-10910" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Assignt" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="434">
   <si>
     <t>Customer ID</t>
   </si>
@@ -1904,10 +1904,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>fum &lt;belleblue01@gmail.com</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Shoko Takimoto &lt;takkimail@gmail.com</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -1960,19 +1956,39 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>IE/TD</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>AU/JM</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>JM/VC</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
     <t>WE/VC</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>--</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>belleblue01@gmail.com</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AU/JM/TM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AU/IE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JM/VC/TM</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JM/TD</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AU/GR</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3217,7 +3233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3825,6 +3841,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4580,10 +4599,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4886,8 +4901,8 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -4906,8 +4921,8 @@
     <col min="20" max="20" width="9.25" style="2" hidden="1" customWidth="1"/>
     <col min="21" max="29" width="9.625" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.375" style="2" hidden="1" customWidth="1"/>
-    <col min="31" max="53" width="9.625" style="2" hidden="1" customWidth="1"/>
-    <col min="54" max="77" width="9.625" style="2" customWidth="1"/>
+    <col min="31" max="52" width="9.625" style="2" hidden="1" customWidth="1"/>
+    <col min="53" max="77" width="9.625" style="2" customWidth="1"/>
     <col min="78" max="78" width="15.5" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -5279,14 +5294,14 @@
         <v>396</v>
       </c>
       <c r="AV2" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AW2" s="39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AY2" s="39"/>
       <c r="AZ2" s="130" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BA2" s="39"/>
       <c r="BB2" s="172"/>
@@ -5424,26 +5439,26 @@
         <v>392</v>
       </c>
       <c r="AT3" s="47" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU3" s="39" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AV3" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AX3" s="170" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AY3" s="47"/>
       <c r="AZ3" s="47" t="s">
         <v>393</v>
       </c>
       <c r="BA3" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BB3" s="173"/>
       <c r="BC3" s="173"/>
@@ -5481,7 +5496,7 @@
         <v>190</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>55</v>
@@ -5671,7 +5686,7 @@
         <v>95</v>
       </c>
       <c r="BS4" s="197" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BT4" s="174" t="s">
         <v>161</v>
@@ -5830,7 +5845,7 @@
         <v>72</v>
       </c>
       <c r="AV5" s="184" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AW5" s="121" t="s">
         <v>368</v>
@@ -5851,7 +5866,7 @@
         <v>149</v>
       </c>
       <c r="BC5" s="197" t="s">
-        <v>428</v>
+        <v>159</v>
       </c>
       <c r="BD5" s="183" t="s">
         <v>95</v>
@@ -5863,7 +5878,7 @@
         <v>149</v>
       </c>
       <c r="BG5" s="197" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BH5" s="181" t="s">
         <v>151</v>
@@ -6192,7 +6207,7 @@
         <v>147</v>
       </c>
       <c r="BH7" s="197" t="s">
-        <v>159</v>
+        <v>432</v>
       </c>
       <c r="BI7" s="181" t="s">
         <v>151</v>
@@ -6415,7 +6430,7 @@
         <v>147</v>
       </c>
       <c r="BE8" s="201" t="s">
-        <v>154</v>
+        <v>430</v>
       </c>
       <c r="BF8" s="183" t="s">
         <v>95</v>
@@ -6427,14 +6442,12 @@
         <v>147</v>
       </c>
       <c r="BI8" s="197" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="BJ8" s="181" t="s">
         <v>151</v>
       </c>
-      <c r="BK8" s="195" t="s">
-        <v>149</v>
-      </c>
+      <c r="BK8" s="174"/>
       <c r="BL8" s="193" t="s">
         <v>147</v>
       </c>
@@ -6660,7 +6673,7 @@
         <v>147</v>
       </c>
       <c r="BJ9" s="197" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BK9" s="181" t="s">
         <v>151</v>
@@ -7033,7 +7046,7 @@
       </c>
       <c r="AT11" s="121"/>
       <c r="AU11" s="121" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AV11" s="121" t="s">
         <v>250</v>
@@ -7273,7 +7286,7 @@
         <v>161</v>
       </c>
       <c r="AW12" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AX12" s="3" t="s">
         <v>255</v>
@@ -7374,8 +7387,8 @@
       <c r="B13" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>412</v>
+      <c r="C13" s="43" t="s">
+        <v>428</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>55</v>
@@ -7513,8 +7526,8 @@
       <c r="BA13" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="BB13" s="200" t="s">
-        <v>250</v>
+      <c r="BB13" s="181" t="s">
+        <v>151</v>
       </c>
       <c r="BC13" s="195" t="s">
         <v>149</v>
@@ -7753,7 +7766,7 @@
         <v>250</v>
       </c>
       <c r="BO14" s="197" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="BP14" s="69" t="s">
         <v>161</v>
@@ -8045,10 +8058,10 @@
         <v>147</v>
       </c>
       <c r="BA16" s="177" t="s">
-        <v>426</v>
+        <v>152</v>
       </c>
       <c r="BB16" s="201" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="BC16" s="195" t="s">
         <v>149</v>
@@ -8060,7 +8073,7 @@
         <v>149</v>
       </c>
       <c r="BF16" s="197" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="BG16" s="178" t="s">
         <v>152</v>
@@ -8072,7 +8085,7 @@
         <v>149</v>
       </c>
       <c r="BJ16" s="201" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="BK16" s="183" t="s">
         <v>95</v>
@@ -8250,7 +8263,7 @@
       </c>
       <c r="AS17" s="121"/>
       <c r="AT17" s="166" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AU17" s="166"/>
       <c r="AV17" s="166"/>
@@ -8432,38 +8445,38 @@
       <c r="AZ18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BA18" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB18" s="181" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC18" s="193" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD18" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="BE18" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="BF18" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="BG18" s="193" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH18" s="178" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI18" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ18" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="BK18" s="193" t="s">
-        <v>147</v>
+      <c r="BA18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BB18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BC18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BD18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BE18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BF18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BG18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BH18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BI18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BJ18" s="203" t="s">
+        <v>427</v>
+      </c>
+      <c r="BK18" s="203" t="s">
+        <v>427</v>
       </c>
       <c r="BL18" s="183" t="s">
         <v>95</v>
@@ -8646,8 +8659,8 @@
       <c r="AZ19" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BA19" s="184" t="s">
-        <v>147</v>
+      <c r="BA19" s="203" t="s">
+        <v>427</v>
       </c>
       <c r="BB19" s="202" t="s">
         <v>155</v>
@@ -9191,7 +9204,7 @@
         <v>72</v>
       </c>
       <c r="BE22" s="199" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="BF22" s="181" t="s">
         <v>151</v>
@@ -9334,18 +9347,20 @@
       <c r="BB23" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="BC23" s="195" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD23" s="174"/>
+      <c r="BC23" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD23" s="200" t="s">
+        <v>250</v>
+      </c>
       <c r="BE23" s="198" t="s">
         <v>72</v>
       </c>
       <c r="BF23" s="193" t="s">
         <v>147</v>
       </c>
-      <c r="BG23" s="195" t="s">
-        <v>149</v>
+      <c r="BG23" s="69" t="s">
+        <v>161</v>
       </c>
       <c r="BH23" s="174"/>
       <c r="BI23" s="201" t="s">
@@ -10729,7 +10744,7 @@
       </c>
       <c r="BA28" s="64">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="64">
         <f t="shared" ref="BB28:BY28" si="34">COUNTIF(BB4:BB23,"*TP*")</f>
@@ -11891,7 +11906,7 @@
       </c>
       <c r="BG32" s="64">
         <f t="shared" si="64"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH32" s="64">
         <f t="shared" si="64"/>
@@ -12152,7 +12167,7 @@
       </c>
       <c r="BA33" s="192">
         <f t="shared" si="68"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB33" s="192">
         <f t="shared" ref="BB33:BY33" si="71">COUNTIF(BB4:BB23,"*PS*")</f>
@@ -12160,7 +12175,7 @@
       </c>
       <c r="BC33" s="192">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD33" s="192">
         <f t="shared" si="71"/>
@@ -12176,7 +12191,7 @@
       </c>
       <c r="BG33" s="192">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH33" s="192">
         <f t="shared" si="71"/>
@@ -12192,7 +12207,7 @@
       </c>
       <c r="BK33" s="192">
         <f t="shared" si="71"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL33" s="192">
         <f t="shared" si="71"/>
@@ -12437,7 +12452,7 @@
       </c>
       <c r="BA34" s="79">
         <f t="shared" si="75"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB34" s="79">
         <f t="shared" ref="BB34:BY34" si="78">COUNTIF(BB4:BB23,"*IE*")</f>
@@ -12445,7 +12460,7 @@
       </c>
       <c r="BC34" s="79">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD34" s="79">
         <f t="shared" si="78"/>
@@ -12461,7 +12476,7 @@
       </c>
       <c r="BG34" s="79">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH34" s="79">
         <f t="shared" si="78"/>
@@ -12477,7 +12492,7 @@
       </c>
       <c r="BK34" s="79">
         <f t="shared" si="78"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BL34" s="79">
         <f t="shared" si="78"/>
@@ -12894,9 +12909,10 @@
   <hyperlinks>
     <hyperlink ref="C11" r:id="rId1" xr:uid="{23C81A82-E25A-4D1A-8D48-B12D1FFD69FA}"/>
     <hyperlink ref="C23" r:id="rId2" xr:uid="{0F60CB7D-958C-4713-9B65-5A2BDBE674F5}"/>
+    <hyperlink ref="C13" r:id="rId3" xr:uid="{2F07383C-3C88-4388-9297-B1866D660871}"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Tsudanuma Role assignments.xlsx
+++ b/Tsudanuma Role assignments.xlsx
@@ -8,34 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E6E65-05C8-416F-AF20-109BD9DDFE27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC960C-BEA5-4CD5-9ACF-2B4E49D0FB59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Assignt" sheetId="8" r:id="rId1"/>
-    <sheet name="Role Assignt 190302(rev5)" sheetId="6" state="hidden" r:id="rId2"/>
-    <sheet name="Role Assignt 190213(rev4)" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Role Assignt 181105(rev3)" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="Role Assignt 181103(rev2)" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Role Assignt 181025(rev1)" sheetId="3" state="hidden" r:id="rId6"/>
-    <sheet name="Role Assignt as of 0708" sheetId="1" state="hidden" r:id="rId7"/>
+    <sheet name="Meeting Agenda" sheetId="9" r:id="rId2"/>
+    <sheet name="Zoom Invitation" sheetId="10" r:id="rId3"/>
+    <sheet name="Role Assignt 190302(rev5)" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="Role Assignt 190213(rev4)" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="Role Assignt 181105(rev3)" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Role Assignt 181103(rev2)" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Role Assignt 181025(rev1)" sheetId="3" state="hidden" r:id="rId8"/>
+    <sheet name="Role Assignt as of 0708" sheetId="1" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Role Assignt'!$A$3:$BA$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Role Assignt 181025(rev1)'!$A$3:$AA$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Role Assignt 181103(rev2)'!$A$3:$AA$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Role Assignt 181105(rev3)'!$A$3:$AA$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Role Assignt 190213(rev4)'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Role Assignt 190302(rev5)'!$A$3:$AH$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Role Assignt as of 0708'!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Role Assignt 181025(rev1)'!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Role Assignt 181103(rev2)'!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Role Assignt 181105(rev3)'!$A$3:$AA$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Role Assignt 190213(rev4)'!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Role Assignt 190302(rev5)'!$A$3:$AH$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Role Assignt as of 0708'!$A$3:$AA$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Role Assignt'!$AP$4:$BA$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Role Assignt 181025(rev1)'!$A$1:$AA$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Role Assignt 181103(rev2)'!$A$1:$AA$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Role Assignt 181105(rev3)'!$A$1:$AD$34</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Role Assignt 190213(rev4)'!$A$1:$AK$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Role Assignt 190302(rev5)'!$A$1:$AK$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">'Role Assignt as of 0708'!$A$1:$AA$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'Role Assignt 181025(rev1)'!$A$1:$AA$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'Role Assignt 181103(rev2)'!$A$1:$AA$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Role Assignt 181105(rev3)'!$A$1:$AD$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Role Assignt 190213(rev4)'!$A$1:$AK$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Role Assignt 190302(rev5)'!$A$1:$AK$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'Role Assignt as of 0708'!$A$1:$AA$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Role Assignt'!$A:$E,'Role Assignt'!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4122" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="508">
   <si>
     <t>Customer ID</t>
   </si>
@@ -1991,6 +1993,282 @@
     <t>AU/GR</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>田中 真幸 is inviting you to a scheduled Zoom meeting.</t>
+  </si>
+  <si>
+    <t>Topic: 田中 真幸's Personal Meeting Room</t>
+  </si>
+  <si>
+    <t>Join Zoom Meeting</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/3687526944?pwd=WHVLRGRnZ3pRNnNPZjE5blBhWVlxUT09</t>
+  </si>
+  <si>
+    <t>Meeting ID: 368 752 6944</t>
+  </si>
+  <si>
+    <t>Password: 6yQ7uU</t>
+  </si>
+  <si>
+    <t>One tap mobile</t>
+  </si>
+  <si>
+    <t>+81345781488,,3687526944# Japan</t>
+  </si>
+  <si>
+    <t>+81363628317,,3687526944# Japan</t>
+  </si>
+  <si>
+    <t>Dial by your location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +81 3 4578 1488 Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +81 363 628 317 Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        +81 524 564 439 Japan</t>
+  </si>
+  <si>
+    <t>Find your local number: https://zoom.us/u/adkMnpEKik</t>
+  </si>
+  <si>
+    <t>https://zoom.us/j/3687526944?pwd=WHVLRGRnZ3pRNnNPZjE5blBhWVlxUT09</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Call to Order</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Players</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Opening Remarks</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Business Session</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Guest Introduction</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Thought of the evening</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Word of the evening</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Takimoto</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Chiba</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Yokichi Watanabe</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Toastmaster of the evening</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Mike Tanaka</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Vote Counter</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Um Ah Counter</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Grammarian</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Nakamichi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Nishioka</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Kawai</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Joke Master</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Takamiya</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>Table Topic Session (1' - 2'30)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Prepared Speech Session</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>5-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Takayama</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Project:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Purpose:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Title:</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Takayama</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Sasaki</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PS4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>===== Break Time =====</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Evaluation Session</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>General Evaluator</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Kuroda</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1st Evaluator</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2nd Evaluator</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3rd Evaluator</t>
+  </si>
+  <si>
+    <t>4th Evaluator</t>
+  </si>
+  <si>
+    <t>2-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Nobuko Tanaka</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Timers Report/Voting</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Report Session</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Comments by guests and members without roles</t>
+  </si>
+  <si>
+    <t>Closing Remarks and Adjournment</t>
+  </si>
+  <si>
+    <t>Next Role Assignment on Aug 03</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VC </t>
+  </si>
+  <si>
+    <t>TM Yuriko Watanabe</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Takai</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Koyama</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM Kawauchi</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IE4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Takamiya</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Nishioka</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
@@ -1999,7 +2277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mmm\-dd"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2334,6 +2612,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="59">
@@ -2673,7 +2958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -3101,6 +3386,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3233,7 +3536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3846,6 +4149,60 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3914,6 +4271,189 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>553720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F58E529-D88A-44E0-B5BC-58E29FCFCC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="152400"/>
+          <a:ext cx="1239520" cy="1010920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144574</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4753353" cy="1360372"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AD9F6C-C4AA-464C-830E-7C3A54962569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1878124" y="142875"/>
+          <a:ext cx="4753353" cy="1360372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tsudanuma Toastmasters Club</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>**** Club No.1722409, Area 42, Div. D, Dist. 76 ****</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tobu Kominkan &amp; Zoom</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>July 20, 2020</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4083,7 +4623,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4236,7 +4776,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4381,7 +4921,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4526,7 +5066,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4901,7 +5441,7 @@
   </sheetPr>
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -12917,6 +13457,802 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DDB5F9-B7EE-4634-9269-1961EE3D0F85}">
+  <dimension ref="B7:L81"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="204" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="J10" s="206" t="s">
+        <v>450</v>
+      </c>
+      <c r="L10" s="206" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B11" s="205">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D11" s="206" t="s">
+        <v>449</v>
+      </c>
+      <c r="L11" s="206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>452</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>454</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="L14" s="206"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L15" s="206"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>455</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="206" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>456</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="206" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L18" s="206"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="205"/>
+      <c r="D19" s="206" t="s">
+        <v>460</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="L19" s="206" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="205">
+        <f>B11+TIME(0,SUM(J12:J17),0)</f>
+        <v>0.79791666666666661</v>
+      </c>
+      <c r="D20" t="s">
+        <v>358</v>
+      </c>
+      <c r="L20" s="206" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>462</v>
+      </c>
+      <c r="L21" s="206" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>463</v>
+      </c>
+      <c r="L22" s="206" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>464</v>
+      </c>
+      <c r="L23" s="206" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="206"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="205">
+        <f>B20+TIME(0,SUM(J19:J23),0)</f>
+        <v>0.80486111111111103</v>
+      </c>
+      <c r="D25" s="206" t="s">
+        <v>468</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="206" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="206"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="205">
+        <f>B25+TIME(0,SUM(J25),0)</f>
+        <v>0.80694444444444435</v>
+      </c>
+      <c r="D27" s="206" t="s">
+        <v>471</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="L27" s="206" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="F28" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" t="s">
+        <v>475</v>
+      </c>
+      <c r="L28" s="206"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D29" s="209" t="s">
+        <v>495</v>
+      </c>
+      <c r="L29" s="206" t="str">
+        <f>L20</f>
+        <v>TM Nakamichi</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="206"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="205">
+        <f>B27+TIME(0,SUM(J27),0)</f>
+        <v>0.81736111111111098</v>
+      </c>
+      <c r="D31" s="206" t="s">
+        <v>476</v>
+      </c>
+      <c r="L31" s="206"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D32" s="206" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="207" t="s">
+        <v>477</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+      <c r="L32" s="206" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>479</v>
+      </c>
+      <c r="L33" s="206"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>480</v>
+      </c>
+      <c r="L34" s="206"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E35" t="s">
+        <v>481</v>
+      </c>
+      <c r="L35" s="206"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L36" s="206"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D37" s="206" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="207" t="s">
+        <v>477</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="L37" s="206" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E38" t="s">
+        <v>479</v>
+      </c>
+      <c r="L38" s="206"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>480</v>
+      </c>
+      <c r="L39" s="206"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E40" t="s">
+        <v>481</v>
+      </c>
+      <c r="L40" s="206"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L41" s="206"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D42" s="206" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="207"/>
+      <c r="L42" s="206"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>479</v>
+      </c>
+      <c r="L43" s="206"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E44" t="s">
+        <v>480</v>
+      </c>
+      <c r="L44" s="206"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E45" t="s">
+        <v>481</v>
+      </c>
+      <c r="L45" s="206"/>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L46" s="206"/>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D47" s="206" t="s">
+        <v>484</v>
+      </c>
+      <c r="I47" s="207"/>
+      <c r="L47" s="206"/>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="E48" t="s">
+        <v>479</v>
+      </c>
+      <c r="L48" s="206"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E49" t="s">
+        <v>480</v>
+      </c>
+      <c r="L49" s="206"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E50" t="s">
+        <v>481</v>
+      </c>
+      <c r="L50" s="206"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D51" s="209" t="s">
+        <v>495</v>
+      </c>
+      <c r="L51" s="206" t="str">
+        <f>L20</f>
+        <v>TM Nakamichi</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D52" s="209"/>
+      <c r="L52" s="206"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B53" s="205">
+        <f>B31+TIME(0,SUM(J32:J50),0)</f>
+        <v>0.82708333333333317</v>
+      </c>
+      <c r="D53" s="208" t="s">
+        <v>485</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="L53" s="206"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L54" s="206"/>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B55" s="205">
+        <f>B53+TIME(0,SUM(J53),0)</f>
+        <v>0.83055555555555538</v>
+      </c>
+      <c r="D55" s="206" t="s">
+        <v>486</v>
+      </c>
+      <c r="L55" s="206"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D56" t="s">
+        <v>487</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="L56" s="206" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D57" t="s">
+        <v>489</v>
+      </c>
+      <c r="I57" s="207" t="s">
+        <v>493</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="L57" s="206" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D58" t="s">
+        <v>490</v>
+      </c>
+      <c r="I58" s="207" t="s">
+        <v>493</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="L58" s="206" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D59" t="s">
+        <v>491</v>
+      </c>
+      <c r="L59" s="206"/>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D60" t="s">
+        <v>492</v>
+      </c>
+      <c r="L60" s="206"/>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D61" s="209" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" s="206" t="str">
+        <f>L20</f>
+        <v>TM Nakamichi</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L62" s="206"/>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B63" s="205">
+        <f>B55+TIME(0,SUM(J56:J60),0)</f>
+        <v>0.83819444444444424</v>
+      </c>
+      <c r="D63" s="206" t="s">
+        <v>496</v>
+      </c>
+      <c r="J63">
+        <v>5</v>
+      </c>
+      <c r="L63" s="206"/>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" s="206" t="str">
+        <f>L17</f>
+        <v>TM Yokichi Watanabe</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D65" t="s">
+        <v>463</v>
+      </c>
+      <c r="L65" s="206" t="str">
+        <f>L22</f>
+        <v>TM Kawai</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D66" t="s">
+        <v>464</v>
+      </c>
+      <c r="L66" s="206" t="str">
+        <f>L23</f>
+        <v>TM Kawai</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D67" t="s">
+        <v>462</v>
+      </c>
+      <c r="L67" s="206" t="str">
+        <f>L21</f>
+        <v>TM Nishioka</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="L68" s="206"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B69" s="205">
+        <f>B63+TIME(0,SUM(J63:J67),0)</f>
+        <v>0.84166666666666645</v>
+      </c>
+      <c r="D69" s="210" t="s">
+        <v>497</v>
+      </c>
+      <c r="L69" s="206"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="D70" s="210" t="s">
+        <v>498</v>
+      </c>
+      <c r="L70" s="206" t="str">
+        <f>L11</f>
+        <v>TM Takimoto</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B72" s="206" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B73" s="220" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="217" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="169"/>
+      <c r="E73" s="220" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73" s="217" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" s="169"/>
+      <c r="H73" s="220" t="s">
+        <v>68</v>
+      </c>
+      <c r="I73" s="217" t="s">
+        <v>478</v>
+      </c>
+      <c r="J73" s="169"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B74" s="220" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="217" t="s">
+        <v>501</v>
+      </c>
+      <c r="D74" s="169"/>
+      <c r="E74" s="220" t="s">
+        <v>81</v>
+      </c>
+      <c r="F74" s="217" t="s">
+        <v>467</v>
+      </c>
+      <c r="G74" s="169"/>
+      <c r="H74" s="220" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" s="217" t="s">
+        <v>506</v>
+      </c>
+      <c r="J74" s="169"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B75" s="220" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" s="217" t="s">
+        <v>458</v>
+      </c>
+      <c r="D75" s="169"/>
+      <c r="E75" s="220" t="s">
+        <v>84</v>
+      </c>
+      <c r="F75" s="217" t="s">
+        <v>494</v>
+      </c>
+      <c r="G75" s="169"/>
+      <c r="H75" s="220" t="s">
+        <v>70</v>
+      </c>
+      <c r="I75" s="217" t="s">
+        <v>507</v>
+      </c>
+      <c r="J75" s="169"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B76" s="220" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="217" t="s">
+        <v>461</v>
+      </c>
+      <c r="D76" s="169"/>
+      <c r="E76" s="221" t="s">
+        <v>484</v>
+      </c>
+      <c r="F76" s="217" t="s">
+        <v>457</v>
+      </c>
+      <c r="G76" s="169"/>
+      <c r="H76" s="220" t="s">
+        <v>505</v>
+      </c>
+      <c r="I76" s="217" t="s">
+        <v>459</v>
+      </c>
+      <c r="J76" s="169"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B77" s="220" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="217" t="s">
+        <v>461</v>
+      </c>
+      <c r="D77" s="169"/>
+      <c r="E77" s="220" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="217" t="s">
+        <v>483</v>
+      </c>
+      <c r="G77" s="169"/>
+      <c r="H77" s="212"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="213"/>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B78" s="220" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="217" t="s">
+        <v>502</v>
+      </c>
+      <c r="D78" s="169"/>
+      <c r="E78" s="218"/>
+      <c r="F78" s="211"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="214"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B79" s="220" t="s">
+        <v>500</v>
+      </c>
+      <c r="C79" s="217" t="s">
+        <v>503</v>
+      </c>
+      <c r="D79" s="169"/>
+      <c r="E79" s="218"/>
+      <c r="F79" s="211"/>
+      <c r="G79" s="211"/>
+      <c r="H79" s="211"/>
+      <c r="I79" s="211"/>
+      <c r="J79" s="214"/>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B80" s="220" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="217" t="s">
+        <v>461</v>
+      </c>
+      <c r="D80" s="169"/>
+      <c r="E80" s="218"/>
+      <c r="F80" s="211"/>
+      <c r="G80" s="211"/>
+      <c r="H80" s="211"/>
+      <c r="I80" s="211"/>
+      <c r="J80" s="214"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B81" s="220" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="217" t="s">
+        <v>504</v>
+      </c>
+      <c r="D81" s="169"/>
+      <c r="E81" s="219"/>
+      <c r="F81" s="215"/>
+      <c r="G81" s="215"/>
+      <c r="H81" s="215"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="216"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{E51DBA1E-EFFC-490D-8BE9-C3F27DBB21D2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E62380-EA6F-41B9-8D14-0CB4ED0E215D}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16262,7 +17598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -19587,7 +20923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -22329,7 +23665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -25069,7 +26405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -27809,7 +29145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/Tsudanuma Role assignments.xlsx
+++ b/Tsudanuma Role assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DC960C-BEA5-4CD5-9ACF-2B4E49D0FB59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E97E80-A672-49FD-9A46-B672F25602D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="513">
   <si>
     <t>Customer ID</t>
   </si>
@@ -2267,6 +2269,26 @@
   </si>
   <si>
     <t>Nishioka</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TE/AU</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IE/GR</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AU/TE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TM/WE</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AU/GR/TE</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -5442,10 +5464,10 @@
   <dimension ref="A1:CB46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="BA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="BD4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5461,8 +5483,8 @@
     <col min="20" max="20" width="9.25" style="2" hidden="1" customWidth="1"/>
     <col min="21" max="29" width="9.625" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.375" style="2" hidden="1" customWidth="1"/>
-    <col min="31" max="52" width="9.625" style="2" hidden="1" customWidth="1"/>
-    <col min="53" max="77" width="9.625" style="2" customWidth="1"/>
+    <col min="31" max="55" width="9.625" style="2" hidden="1" customWidth="1"/>
+    <col min="56" max="77" width="9.625" style="2" customWidth="1"/>
     <col min="78" max="78" width="15.5" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6221,7 +6243,9 @@
       <c r="BP4" s="197" t="s">
         <v>159</v>
       </c>
-      <c r="BQ4" s="174"/>
+      <c r="BQ4" s="174" t="s">
+        <v>72</v>
+      </c>
       <c r="BR4" s="183" t="s">
         <v>95</v>
       </c>
@@ -6756,7 +6780,7 @@
         <v>149</v>
       </c>
       <c r="BK7" s="201" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="BL7" s="193" t="s">
         <v>147</v>
@@ -6998,7 +7022,7 @@
         <v>149</v>
       </c>
       <c r="BO8" s="201" t="s">
-        <v>154</v>
+        <v>433</v>
       </c>
       <c r="BP8" s="193" t="s">
         <v>147</v>
@@ -7207,7 +7231,7 @@
         <v>95</v>
       </c>
       <c r="BH9" s="199" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="BI9" s="193" t="s">
         <v>147</v>
@@ -7386,65 +7410,37 @@
       <c r="BC10" s="202" t="s">
         <v>155</v>
       </c>
-      <c r="BD10" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE10" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF10" s="198" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG10" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="BH10" s="174" t="s">
-        <v>161</v>
-      </c>
-      <c r="BI10" s="199" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ10" s="198" t="s">
-        <v>72</v>
-      </c>
-      <c r="BK10" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL10" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM10" s="199" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN10" s="198" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO10" s="202" t="s">
-        <v>155</v>
-      </c>
-      <c r="BP10" s="200" t="s">
-        <v>250</v>
-      </c>
-      <c r="BQ10" s="198" t="s">
-        <v>72</v>
-      </c>
+      <c r="BD10" s="174"/>
+      <c r="BE10" s="174"/>
+      <c r="BF10" s="174"/>
+      <c r="BG10" s="174"/>
+      <c r="BH10" s="174"/>
+      <c r="BI10" s="174"/>
+      <c r="BJ10" s="174"/>
+      <c r="BK10" s="174"/>
+      <c r="BL10" s="174"/>
+      <c r="BM10" s="174"/>
+      <c r="BN10" s="174"/>
+      <c r="BO10" s="174"/>
+      <c r="BP10" s="174"/>
+      <c r="BQ10" s="174"/>
       <c r="BR10" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="BS10" s="199" t="s">
+      <c r="BS10" s="174" t="s">
         <v>66</v>
       </c>
       <c r="BT10" s="174"/>
-      <c r="BU10" s="202" t="s">
+      <c r="BU10" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="BV10" s="199" t="s">
+      <c r="BV10" s="174" t="s">
         <v>66</v>
       </c>
       <c r="BW10" s="174" t="s">
         <v>161</v>
       </c>
-      <c r="BX10" s="198" t="s">
+      <c r="BX10" s="174" t="s">
         <v>72</v>
       </c>
       <c r="BY10" s="174" t="s">
@@ -7622,7 +7618,7 @@
         <v>147</v>
       </c>
       <c r="BG11" s="198" t="s">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="BH11" s="183" t="s">
         <v>95</v>
@@ -7871,7 +7867,7 @@
         <v>147</v>
       </c>
       <c r="BL12" s="202" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="BM12" s="181" t="s">
         <v>151</v>
@@ -8108,7 +8104,9 @@
       <c r="BO13" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="BP13" s="69"/>
+      <c r="BP13" s="69" t="s">
+        <v>250</v>
+      </c>
       <c r="BQ13" s="193" t="s">
         <v>147</v>
       </c>
@@ -8610,7 +8608,7 @@
         <v>147</v>
       </c>
       <c r="BE16" s="195" t="s">
-        <v>149</v>
+        <v>509</v>
       </c>
       <c r="BF16" s="197" t="s">
         <v>431</v>
@@ -8625,7 +8623,7 @@
         <v>149</v>
       </c>
       <c r="BJ16" s="201" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="BK16" s="183" t="s">
         <v>95</v>
@@ -9215,7 +9213,7 @@
         <v>147</v>
       </c>
       <c r="BF19" s="201" t="s">
-        <v>154</v>
+        <v>510</v>
       </c>
       <c r="BG19" s="195" t="s">
         <v>149</v>
@@ -9451,7 +9449,9 @@
       <c r="BL20" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="BM20" s="69"/>
+      <c r="BM20" s="69" t="s">
+        <v>66</v>
+      </c>
       <c r="BN20" s="183" t="s">
         <v>95</v>
       </c>
@@ -9741,7 +9741,7 @@
         <v>147</v>
       </c>
       <c r="BD22" s="198" t="s">
-        <v>72</v>
+        <v>508</v>
       </c>
       <c r="BE22" s="199" t="s">
         <v>426</v>
@@ -9756,7 +9756,7 @@
         <v>155</v>
       </c>
       <c r="BI22" s="200" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
       <c r="BJ22" s="195" t="s">
         <v>149</v>
@@ -9770,7 +9770,9 @@
       <c r="BM22" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="BN22" s="69"/>
+      <c r="BN22" s="69" t="s">
+        <v>72</v>
+      </c>
       <c r="BO22" s="193" t="s">
         <v>147</v>
       </c>
@@ -23660,7 +23662,7 @@
     <hyperlink ref="AB20" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
 </file>

--- a/Tsudanuma Role assignments.xlsx
+++ b/Tsudanuma Role assignments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\Tsudanuma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E0E2BF-BDAB-4E0F-983E-0B40344A6CD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF65D2D-09F5-4464-9402-ACE9D0E27451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Assignt" sheetId="8" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4268" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="516">
   <si>
     <t>Customer ID</t>
   </si>
@@ -5536,10 +5536,10 @@
   <dimension ref="A1:CB49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="BH9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5555,8 +5555,8 @@
     <col min="20" max="20" width="9.25" style="2" hidden="1" customWidth="1"/>
     <col min="21" max="29" width="9.625" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.375" style="2" hidden="1" customWidth="1"/>
-    <col min="31" max="58" width="9.625" style="2" hidden="1" customWidth="1"/>
-    <col min="59" max="77" width="9.625" style="2" customWidth="1"/>
+    <col min="31" max="59" width="9.625" style="2" hidden="1" customWidth="1"/>
+    <col min="60" max="77" width="9.625" style="2" customWidth="1"/>
     <col min="78" max="78" width="15.5" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -7106,58 +7106,58 @@
       <c r="BG9" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="BH9" s="192" t="s">
+      <c r="BH9" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BI9" s="196" t="s">
+      <c r="BI9" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BJ9" s="180" t="s">
+      <c r="BJ9" s="173" t="s">
         <v>151</v>
       </c>
       <c r="BK9" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BL9" s="192" t="s">
+      <c r="BL9" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BM9" s="197" t="s">
+      <c r="BM9" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BN9" s="194" t="s">
+      <c r="BN9" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BO9" s="200" t="s">
+      <c r="BO9" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BP9" s="192" t="s">
+      <c r="BP9" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BQ9" s="177" t="s">
+      <c r="BQ9" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BR9" s="201" t="s">
+      <c r="BR9" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BS9" s="194" t="s">
+      <c r="BS9" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BT9" s="192" t="s">
+      <c r="BT9" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BU9" s="182" t="s">
+      <c r="BU9" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BV9" s="194" t="s">
+      <c r="BV9" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BW9" s="199" t="s">
+      <c r="BW9" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BX9" s="180" t="s">
+      <c r="BX9" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BY9" s="194" t="s">
+      <c r="BY9" s="173" t="s">
         <v>149</v>
       </c>
       <c r="BZ9" s="168" t="s">
@@ -7336,58 +7336,58 @@
       <c r="BG10" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="BH10" s="198" t="s">
+      <c r="BH10" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BI10" s="192" t="s">
+      <c r="BI10" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BJ10" s="196" t="s">
+      <c r="BJ10" s="173" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK10" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BL10" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="BM10" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN10" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BK10" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BL10" s="199" t="s">
-        <v>250</v>
-      </c>
-      <c r="BM10" s="192" t="s">
+      <c r="BO10" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BP10" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ10" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BN10" s="196" t="s">
+      <c r="BR10" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS10" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT10" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BO10" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BP10" s="198" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ10" s="192" t="s">
+      <c r="BU10" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BR10" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS10" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT10" s="196" t="s">
+      <c r="BV10" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="BW10" s="173" t="s">
+        <v>155</v>
+      </c>
+      <c r="BX10" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BU10" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV10" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="BW10" s="201" t="s">
-        <v>155</v>
-      </c>
-      <c r="BX10" s="196" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY10" s="180" t="s">
+      <c r="BY10" s="173" t="s">
         <v>151</v>
       </c>
       <c r="BZ10" s="168" t="s">
@@ -7716,58 +7716,56 @@
       <c r="BG12" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="BH12" s="182" t="s">
+      <c r="BH12" s="173" t="s">
         <v>95</v>
       </c>
       <c r="BI12" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BJ12" s="192" t="s">
+      <c r="BJ12" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BK12" s="194" t="s">
+      <c r="BK12" s="173"/>
+      <c r="BL12" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM12" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="BN12" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO12" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BL12" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM12" s="199" t="s">
-        <v>250</v>
-      </c>
-      <c r="BN12" s="192" t="s">
+      <c r="BP12" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ12" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR12" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BO12" s="194" t="s">
+      <c r="BS12" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="BT12" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BP12" s="200" t="s">
-        <v>154</v>
-      </c>
-      <c r="BQ12" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BR12" s="192" t="s">
+      <c r="BU12" s="173" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV12" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BS12" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="BT12" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU12" s="196" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV12" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW12" s="182" t="s">
+      <c r="BW12" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BX12" s="198" t="s">
+      <c r="BX12" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BY12" s="194" t="s">
+      <c r="BY12" s="173" t="s">
         <v>149</v>
       </c>
       <c r="BZ12" s="168" t="s">
@@ -7950,58 +7948,58 @@
       <c r="BG13" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BH13" s="194" t="s">
+      <c r="BH13" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BI13" s="182" t="s">
+      <c r="BI13" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BJ13" s="198" t="s">
+      <c r="BJ13" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BK13" s="192" t="s">
+      <c r="BK13" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BL13" s="201" t="s">
+      <c r="BL13" s="173" t="s">
         <v>515</v>
       </c>
-      <c r="BM13" s="180" t="s">
+      <c r="BM13" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BN13" s="198" t="s">
+      <c r="BN13" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BO13" s="192" t="s">
+      <c r="BO13" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BP13" s="201" t="s">
+      <c r="BP13" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BQ13" s="194" t="s">
+      <c r="BQ13" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BR13" s="197" t="s">
+      <c r="BR13" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BS13" s="192" t="s">
+      <c r="BS13" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BT13" s="177" t="s">
+      <c r="BT13" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BU13" s="69" t="s">
+      <c r="BU13" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BV13" s="194" t="s">
+      <c r="BV13" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BW13" s="192" t="s">
+      <c r="BW13" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BX13" s="182" t="s">
+      <c r="BX13" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BY13" s="196" t="s">
+      <c r="BY13" s="173" t="s">
         <v>159</v>
       </c>
       <c r="BZ13" s="168" t="s">
@@ -8176,58 +8174,56 @@
       <c r="BG14" s="200" t="s">
         <v>154</v>
       </c>
-      <c r="BH14" s="194" t="s">
+      <c r="BH14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BI14" s="192" t="s">
+      <c r="BI14" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BJ14" s="182" t="s">
+      <c r="BJ14" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BK14" s="194" t="s">
+      <c r="BK14" s="173"/>
+      <c r="BL14" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM14" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BN14" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BL14" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM14" s="192" t="s">
+      <c r="BP14" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="BQ14" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BN14" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO14" s="194" t="s">
+      <c r="BR14" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BP14" s="69" t="s">
+      <c r="BS14" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT14" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BU14" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV14" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BW14" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX14" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BQ14" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BR14" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS14" s="197" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT14" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU14" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="BV14" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BW14" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX14" s="199" t="s">
-        <v>250</v>
-      </c>
-      <c r="BY14" s="182" t="s">
+      <c r="BY14" s="173" t="s">
         <v>95</v>
       </c>
       <c r="BZ14" s="168"/>
@@ -8380,50 +8376,50 @@
         <v>66</v>
       </c>
       <c r="BG15" s="173"/>
-      <c r="BH15" s="197" t="s">
+      <c r="BH15" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BI15" s="69"/>
-      <c r="BJ15" s="199" t="s">
+      <c r="BI15" s="173"/>
+      <c r="BJ15" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BK15" s="196" t="s">
+      <c r="BK15" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="200" t="s">
+      <c r="BL15" s="173"/>
+      <c r="BM15" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BN15" s="199" t="s">
+      <c r="BN15" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BO15" s="196" t="s">
+      <c r="BO15" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BP15" s="69" t="s">
+      <c r="BP15" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BQ15" s="198" t="s">
+      <c r="BQ15" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BR15" s="69"/>
-      <c r="BS15" s="199" t="s">
+      <c r="BR15" s="173"/>
+      <c r="BS15" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BT15" s="197" t="s">
+      <c r="BT15" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BU15" s="69"/>
-      <c r="BV15" s="196" t="s">
+      <c r="BU15" s="173"/>
+      <c r="BV15" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BW15" s="198" t="s">
+      <c r="BW15" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BX15" s="200" t="s">
+      <c r="BX15" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BY15" s="197" t="s">
+      <c r="BY15" s="173" t="s">
         <v>72</v>
       </c>
       <c r="BZ15" s="168" t="s">
@@ -8534,24 +8530,24 @@
       <c r="BE16" s="174"/>
       <c r="BF16" s="174"/>
       <c r="BG16" s="174"/>
-      <c r="BH16" s="174"/>
-      <c r="BI16" s="174"/>
-      <c r="BJ16" s="174"/>
-      <c r="BK16" s="174"/>
-      <c r="BL16" s="174"/>
-      <c r="BM16" s="174"/>
-      <c r="BN16" s="174"/>
-      <c r="BO16" s="174"/>
-      <c r="BP16" s="174"/>
-      <c r="BQ16" s="174"/>
-      <c r="BR16" s="174"/>
-      <c r="BS16" s="174"/>
-      <c r="BT16" s="174"/>
-      <c r="BU16" s="174"/>
-      <c r="BV16" s="174"/>
-      <c r="BW16" s="174"/>
-      <c r="BX16" s="174"/>
-      <c r="BY16" s="174"/>
+      <c r="BH16" s="173"/>
+      <c r="BI16" s="173"/>
+      <c r="BJ16" s="173"/>
+      <c r="BK16" s="173"/>
+      <c r="BL16" s="173"/>
+      <c r="BM16" s="173"/>
+      <c r="BN16" s="173"/>
+      <c r="BO16" s="173"/>
+      <c r="BP16" s="173"/>
+      <c r="BQ16" s="173"/>
+      <c r="BR16" s="173"/>
+      <c r="BS16" s="173"/>
+      <c r="BT16" s="173"/>
+      <c r="BU16" s="173"/>
+      <c r="BV16" s="173"/>
+      <c r="BW16" s="173"/>
+      <c r="BX16" s="173"/>
+      <c r="BY16" s="173"/>
       <c r="BZ16" s="168"/>
       <c r="CA16" s="5" t="s">
         <v>64</v>
@@ -8710,42 +8706,44 @@
       <c r="BG17" s="177" t="s">
         <v>152</v>
       </c>
-      <c r="BH17" s="192" t="s">
+      <c r="BH17" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BI17" s="194" t="s">
+      <c r="BI17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BJ17" s="200" t="s">
+      <c r="BJ17" s="173" t="s">
         <v>432</v>
       </c>
-      <c r="BK17" s="182" t="s">
+      <c r="BK17" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BL17" s="194" t="s">
+      <c r="BL17" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BM17" s="201"/>
-      <c r="BN17" s="200"/>
-      <c r="BO17" s="180" t="s">
+      <c r="BN17" s="173"/>
+      <c r="BO17" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BP17" s="192" t="s">
+      <c r="BP17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BQ17" s="196"/>
-      <c r="BR17" s="194"/>
-      <c r="BS17" s="200" t="s">
+      <c r="BQ17" s="173"/>
+      <c r="BR17" s="173"/>
+      <c r="BS17" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BT17" s="192" t="s">
+      <c r="BT17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BU17" s="197"/>
-      <c r="BV17" s="177"/>
-      <c r="BW17" s="194"/>
-      <c r="BX17" s="192"/>
-      <c r="BY17" s="198"/>
+      <c r="BU17" s="173"/>
+      <c r="BV17" s="173"/>
+      <c r="BW17" s="173"/>
+      <c r="BX17" s="173"/>
+      <c r="BY17" s="173"/>
       <c r="BZ17" s="168"/>
       <c r="CA17" s="5" t="s">
         <v>28</v>
@@ -8892,24 +8890,24 @@
       <c r="BE18" s="175"/>
       <c r="BF18" s="175"/>
       <c r="BG18" s="175"/>
-      <c r="BH18" s="175"/>
-      <c r="BI18" s="194"/>
-      <c r="BJ18" s="175"/>
-      <c r="BK18" s="175"/>
-      <c r="BL18" s="175"/>
-      <c r="BM18" s="175"/>
-      <c r="BN18" s="175"/>
-      <c r="BO18" s="175"/>
-      <c r="BP18" s="175"/>
-      <c r="BQ18" s="175"/>
-      <c r="BR18" s="175"/>
-      <c r="BS18" s="175"/>
-      <c r="BT18" s="175"/>
-      <c r="BU18" s="175"/>
-      <c r="BV18" s="175"/>
-      <c r="BW18" s="175"/>
-      <c r="BX18" s="175"/>
-      <c r="BY18" s="175"/>
+      <c r="BH18" s="173"/>
+      <c r="BI18" s="173"/>
+      <c r="BJ18" s="173"/>
+      <c r="BK18" s="173"/>
+      <c r="BL18" s="173"/>
+      <c r="BM18" s="173"/>
+      <c r="BN18" s="173"/>
+      <c r="BO18" s="173"/>
+      <c r="BP18" s="173"/>
+      <c r="BQ18" s="173"/>
+      <c r="BR18" s="173"/>
+      <c r="BS18" s="173"/>
+      <c r="BT18" s="173"/>
+      <c r="BU18" s="173"/>
+      <c r="BV18" s="173"/>
+      <c r="BW18" s="173"/>
+      <c r="BX18" s="173"/>
+      <c r="BY18" s="173"/>
       <c r="BZ18" s="168"/>
       <c r="CA18" s="5"/>
       <c r="CB18" s="5"/>
@@ -9092,44 +9090,42 @@
       <c r="BK19" s="202" t="s">
         <v>427</v>
       </c>
-      <c r="BL19" s="182" t="s">
+      <c r="BL19" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BM19" s="69" t="s">
+      <c r="BM19" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BN19" s="201" t="s">
+      <c r="BN19" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BO19" s="194" t="s">
+      <c r="BO19" s="173"/>
+      <c r="BP19" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ19" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="BR19" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BP19" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BQ19" s="199" t="s">
-        <v>250</v>
-      </c>
-      <c r="BR19" s="194" t="s">
+      <c r="BS19" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT19" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BS19" s="192" t="s">
+      <c r="BU19" s="173"/>
+      <c r="BV19" s="173" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW19" s="173" t="s">
+        <v>152</v>
+      </c>
+      <c r="BX19" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BT19" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU19" s="69"/>
-      <c r="BV19" s="197" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW19" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="BX19" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY19" s="199" t="s">
+      <c r="BY19" s="173" t="s">
         <v>250</v>
       </c>
       <c r="BZ19" s="168" t="s">
@@ -9294,58 +9290,58 @@
       <c r="BG20" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="BH20" s="199" t="s">
+      <c r="BH20" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BI20" s="177" t="s">
+      <c r="BI20" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BJ20" s="192" t="s">
+      <c r="BJ20" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BK20" s="197" t="s">
+      <c r="BK20" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BL20" s="194" t="s">
+      <c r="BL20" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BM20" s="182" t="s">
+      <c r="BM20" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BN20" s="192" t="s">
+      <c r="BN20" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BO20" s="197" t="s">
+      <c r="BO20" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BP20" s="194" t="s">
+      <c r="BP20" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BQ20" s="180" t="s">
+      <c r="BQ20" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BR20" s="192" t="s">
+      <c r="BR20" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BS20" s="201" t="s">
+      <c r="BS20" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BT20" s="198" t="s">
+      <c r="BT20" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BU20" s="194" t="s">
+      <c r="BU20" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BV20" s="192" t="s">
+      <c r="BV20" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BW20" s="194" t="s">
+      <c r="BW20" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BX20" s="177" t="s">
+      <c r="BX20" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BY20" s="200" t="s">
+      <c r="BY20" s="173" t="s">
         <v>154</v>
       </c>
       <c r="BZ20" s="168" t="s">
@@ -9510,58 +9506,56 @@
       <c r="BG21" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="BH21" s="200" t="s">
+      <c r="BH21" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BI21" s="194" t="s">
+      <c r="BI21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BJ21" s="177" t="s">
+      <c r="BJ21" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BK21" s="192" t="s">
+      <c r="BK21" s="173"/>
+      <c r="BL21" s="173" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM21" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN21" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="BO21" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BL21" s="194" t="s">
+      <c r="BP21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BM21" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO21" s="192" t="s">
+      <c r="BQ21" s="173" t="s">
+        <v>154</v>
+      </c>
+      <c r="BR21" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS21" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BP21" s="194" t="s">
+      <c r="BT21" s="173" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU21" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BQ21" s="200" t="s">
+      <c r="BV21" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BR21" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BS21" s="192" t="s">
+      <c r="BW21" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BT21" s="199" t="s">
-        <v>250</v>
-      </c>
-      <c r="BU21" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV21" s="200" t="s">
-        <v>154</v>
-      </c>
-      <c r="BW21" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX21" s="201" t="s">
+      <c r="BX21" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BY21" s="177" t="s">
+      <c r="BY21" s="173" t="s">
         <v>152</v>
       </c>
       <c r="BZ21" s="168" t="s">
@@ -9670,58 +9664,58 @@
       <c r="BG22" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="BH22" s="192" t="s">
+      <c r="BH22" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BI22" s="197" t="s">
+      <c r="BI22" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BJ22" s="194" t="s">
+      <c r="BJ22" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BK22" s="177" t="s">
+      <c r="BK22" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BL22" s="192" t="s">
+      <c r="BL22" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BM22" s="194" t="s">
+      <c r="BM22" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BN22" s="69" t="s">
+      <c r="BN22" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BO22" s="182" t="s">
+      <c r="BO22" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BP22" s="192" t="s">
+      <c r="BP22" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BQ22" s="201" t="s">
+      <c r="BQ22" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BR22" s="196" t="s">
+      <c r="BR22" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BS22" s="180" t="s">
+      <c r="BS22" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BT22" s="200" t="s">
+      <c r="BT22" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BU22" s="192" t="s">
+      <c r="BU22" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BV22" s="201" t="s">
+      <c r="BV22" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BW22" s="194" t="s">
+      <c r="BW22" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BX22" s="69" t="s">
+      <c r="BX22" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BY22" s="192" t="s">
+      <c r="BY22" s="173" t="s">
         <v>147</v>
       </c>
       <c r="BZ22" s="168"/>
@@ -9828,56 +9822,44 @@
       <c r="BG23" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BH23" s="201" t="s">
+      <c r="BH23" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BI23" s="199" t="s">
+      <c r="BI23" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BJ23" s="194" t="s">
+      <c r="BJ23" s="173"/>
+      <c r="BK23" s="173"/>
+      <c r="BL23" s="173"/>
+      <c r="BM23" s="173"/>
+      <c r="BN23" s="173"/>
+      <c r="BO23" s="173"/>
+      <c r="BP23" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ23" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="BR23" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS23" s="173" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT23" s="173" t="s">
+        <v>151</v>
+      </c>
+      <c r="BU23" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BK23" s="192" t="s">
+      <c r="BV23" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="BW23" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BL23" s="177" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM23" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN23" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO23" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP23" s="182" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ23" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BR23" s="198" t="s">
-        <v>66</v>
-      </c>
-      <c r="BS23" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BT23" s="180" t="s">
-        <v>151</v>
-      </c>
-      <c r="BU23" s="194" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV23" s="69" t="s">
-        <v>161</v>
-      </c>
-      <c r="BW23" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="BX23" s="69"/>
-      <c r="BY23" s="201" t="s">
+      <c r="BX23" s="173"/>
+      <c r="BY23" s="173" t="s">
         <v>155</v>
       </c>
       <c r="BZ23" s="168"/>
@@ -9979,52 +9961,52 @@
       </c>
       <c r="BG24" s="69"/>
       <c r="BH24" s="173"/>
-      <c r="BI24" s="200" t="s">
+      <c r="BI24" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BJ24" s="192" t="s">
+      <c r="BJ24" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BK24" s="198" t="s">
+      <c r="BK24" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BL24" s="196" t="s">
+      <c r="BL24" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BM24" s="177" t="s">
+      <c r="BM24" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BN24" s="192" t="s">
+      <c r="BN24" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BO24" s="198" t="s">
+      <c r="BO24" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BP24" s="194" t="s">
+      <c r="BP24" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BQ24" s="182" t="s">
+      <c r="BQ24" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BR24" s="192" t="s">
+      <c r="BR24" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BS24" s="194" t="s">
+      <c r="BS24" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BT24" s="201" t="s">
+      <c r="BT24" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BU24" s="198" t="s">
+      <c r="BU24" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BV24" s="192" t="s">
+      <c r="BV24" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BW24" s="196" t="s">
+      <c r="BW24" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BX24" s="194" t="s">
+      <c r="BX24" s="173" t="s">
         <v>149</v>
       </c>
       <c r="BY24" s="173"/>
@@ -10120,7 +10102,9 @@
       <c r="BM25" s="239" t="s">
         <v>155</v>
       </c>
-      <c r="BN25" s="239"/>
+      <c r="BN25" s="239" t="s">
+        <v>72</v>
+      </c>
       <c r="BO25" s="239" t="s">
         <v>159</v>
       </c>
@@ -10483,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="BH27" s="135">
-        <f t="shared" si="6"/>
+        <f>COUNTIF(BH5:BH26,"*TE*")</f>
         <v>1</v>
       </c>
       <c r="BI27" s="135">
@@ -10508,7 +10492,7 @@
       </c>
       <c r="BN27" s="135">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO27" s="135">
         <f t="shared" si="6"/>
@@ -10767,76 +10751,76 @@
         <v>1</v>
       </c>
       <c r="BH28" s="70">
-        <f t="shared" si="13"/>
+        <f>COUNTIF(BH5:BH26,"*WE*")</f>
         <v>1</v>
       </c>
       <c r="BI28" s="70">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="BI28:BY28" si="14">COUNTIF(BI5:BI26,"*WE*")</f>
+        <v>1</v>
       </c>
       <c r="BJ28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BK28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BL28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BM28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BN28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BO28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BP28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BQ28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BR28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BS28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BT28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BU28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BV28" s="70">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="BW28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BX28" s="70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BY28" s="70">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:80" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10856,115 +10840,115 @@
         <v>222</v>
       </c>
       <c r="K29" s="64">
-        <f t="shared" ref="K29:AD29" si="14">COUNTIF(K5:K24,"*TD*")</f>
+        <f t="shared" ref="K29:AD29" si="15">COUNTIF(K5:K24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="L29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="M29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="N29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="O29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="P29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="Q29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="R29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="S29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T29" s="64">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="U29" s="64">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="64">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="Z29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AA29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AC29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AD29" s="64">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="64">
-        <f t="shared" ref="AE29:AH29" si="15">COUNTIF(AE5:AE24,"*TD*")</f>
-        <v>1</v>
-      </c>
-      <c r="AF29" s="64">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="AG29" s="64">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="V29" s="64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Z29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AA29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD29" s="64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE29" s="64">
+        <f t="shared" ref="AE29:AH29" si="16">COUNTIF(AE5:AE24,"*TD*")</f>
+        <v>1</v>
+      </c>
+      <c r="AF29" s="64">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AG29" s="64">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="AH29" s="64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AI29" s="64">
-        <f t="shared" ref="AI29:AL29" si="16">COUNTIF(AI5:AI24,"*TD*")</f>
+        <f t="shared" ref="AI29:AL29" si="17">COUNTIF(AI5:AI24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="AJ29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AK29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AL29" s="64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AM29" s="64">
@@ -10972,19 +10956,19 @@
         <v>1</v>
       </c>
       <c r="AN29" s="64">
-        <f t="shared" ref="AN29:BA29" si="17">COUNTIF(AN5:AN24,"*TD*")</f>
+        <f t="shared" ref="AN29:BA29" si="18">COUNTIF(AN5:AN24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="AO29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AP29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AQ29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AR29" s="162">
@@ -10992,15 +10976,15 @@
         <v>1</v>
       </c>
       <c r="AS29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AT29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AU29" s="64">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AV29" s="64">
@@ -11008,119 +10992,119 @@
         <v>1</v>
       </c>
       <c r="AW29" s="64">
-        <f t="shared" ref="AW29:AZ29" si="18">COUNTIF(AW5:AW24,"*TD*")</f>
+        <f t="shared" ref="AW29:AZ29" si="19">COUNTIF(AW5:AW24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="AX29" s="64">
-        <f t="shared" ref="AX29:AY29" si="19">COUNTIF(AX5:AX24,"*TD*")</f>
+        <f t="shared" ref="AX29:AY29" si="20">COUNTIF(AX5:AX24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="AY29" s="64">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AZ29" s="64">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="AZ29" s="64">
+      <c r="BA29" s="64">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="BA29" s="64">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
       <c r="BB29" s="64">
-        <f t="shared" ref="BB29:BY29" si="20">COUNTIF(BB5:BB24,"*TD*")</f>
+        <f t="shared" ref="BB29:BY29" si="21">COUNTIF(BB5:BB24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="BC29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BD29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BE29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BF29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BG29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BH29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BI29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="BI29:BY29" si="22">COUNTIF(BI5:BI24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="BJ29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BK29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BL29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BM29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BN29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BO29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BP29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BQ29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BR29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BS29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BT29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BU29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BV29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BW29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BX29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BY29" s="64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
@@ -11140,115 +11124,115 @@
         <v>224</v>
       </c>
       <c r="K30" s="70">
-        <f t="shared" ref="K30:AD30" si="21">COUNTIF(K5:K24,"*JM*")</f>
+        <f t="shared" ref="K30:AD30" si="23">COUNTIF(K5:K24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="L30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="N30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O30" s="86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="R30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="S30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="T30" s="70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="U30" s="70">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="V30" s="70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="70">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="X30" s="70">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="Y30" s="70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="70">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AC30" s="70">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AD30" s="70">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="70">
-        <f t="shared" ref="AE30:AH30" si="22">COUNTIF(AE5:AE24,"*JM*")</f>
-        <v>1</v>
-      </c>
-      <c r="AF30" s="70">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AG30" s="70">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="70">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="AI30" s="70">
-        <f t="shared" ref="AI30:AL30" si="23">COUNTIF(AI5:AI24,"*JM*")</f>
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="70">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="AK30" s="70">
         <f t="shared" si="23"/>
         <v>2</v>
       </c>
+      <c r="V30" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="70">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="X30" s="70">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Y30" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="70">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AC30" s="70">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AD30" s="70">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="70">
+        <f t="shared" ref="AE30:AH30" si="24">COUNTIF(AE5:AE24,"*JM*")</f>
+        <v>1</v>
+      </c>
+      <c r="AF30" s="70">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AG30" s="70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="70">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="AI30" s="70">
+        <f t="shared" ref="AI30:AL30" si="25">COUNTIF(AI5:AI24,"*JM*")</f>
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="70">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AK30" s="70">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
       <c r="AL30" s="70">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AM30" s="70">
@@ -11256,19 +11240,19 @@
         <v>0</v>
       </c>
       <c r="AN30" s="70">
-        <f t="shared" ref="AN30:BA30" si="24">COUNTIF(AN5:AN24,"*JM*")</f>
+        <f t="shared" ref="AN30:BA30" si="26">COUNTIF(AN5:AN24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="AO30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AP30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AQ30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AR30" s="162">
@@ -11276,15 +11260,15 @@
         <v>1</v>
       </c>
       <c r="AS30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AT30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AU30" s="70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AV30" s="70">
@@ -11292,119 +11276,119 @@
         <v>1</v>
       </c>
       <c r="AW30" s="70">
-        <f t="shared" ref="AW30:AZ30" si="25">COUNTIF(AW5:AW24,"*JM*")</f>
+        <f t="shared" ref="AW30:AZ30" si="27">COUNTIF(AW5:AW24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="AX30" s="70">
-        <f t="shared" ref="AX30:AY30" si="26">COUNTIF(AX5:AX24,"*JM*")</f>
+        <f t="shared" ref="AX30:AY30" si="28">COUNTIF(AX5:AX24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="AY30" s="70">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="AZ30" s="70">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BA30" s="70">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AZ30" s="70">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="BA30" s="70">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
       <c r="BB30" s="70">
-        <f t="shared" ref="BB30:BY30" si="27">COUNTIF(BB5:BB24,"*JM*")</f>
+        <f t="shared" ref="BB30:BY30" si="29">COUNTIF(BB5:BB24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="BC30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BD30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BE30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BF30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BG30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BH30" s="70">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f>COUNTIF(BH5:BH26,"*JM*")</f>
+        <v>1</v>
       </c>
       <c r="BI30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="BI30:BY30" si="30">COUNTIF(BI5:BI26,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="BJ30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BK30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BL30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BM30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BN30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BO30" s="70">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="BP30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BQ30" s="70">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>1</v>
       </c>
       <c r="BR30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BS30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BT30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BU30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BV30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BW30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BX30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BY30" s="70">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -11425,115 +11409,115 @@
         <v>226</v>
       </c>
       <c r="K31" s="64">
-        <f t="shared" ref="K31:AD31" si="28">COUNTIF(K5:K24,"*TP*")</f>
+        <f t="shared" ref="K31:AD31" si="31">COUNTIF(K5:K24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="L31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="M31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="N31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="O31" s="87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="P31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Q31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="R31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="S31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="T31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="U31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="X31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="Y31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="Z31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AA31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AB31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AD31" s="64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AE31" s="64">
-        <f t="shared" ref="AE31:AH31" si="29">COUNTIF(AE5:AE24,"*TP*")</f>
+        <f t="shared" ref="AE31:AH31" si="32">COUNTIF(AE5:AE24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="AF31" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AG31" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH31" s="64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="AI31" s="64">
-        <f t="shared" ref="AI31:AL31" si="30">COUNTIF(AI5:AI24,"*TP*")</f>
+        <f t="shared" ref="AI31:AL31" si="33">COUNTIF(AI5:AI24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="AJ31" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AK31" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AL31" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="AM31" s="64">
@@ -11541,19 +11525,19 @@
         <v>3</v>
       </c>
       <c r="AN31" s="64">
-        <f t="shared" ref="AN31:BA31" si="31">COUNTIF(AN5:AN24,"*TP*")</f>
+        <f t="shared" ref="AN31:BA31" si="34">COUNTIF(AN5:AN24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="AO31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AP31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AQ31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AR31" s="162">
@@ -11561,15 +11545,15 @@
         <v>1</v>
       </c>
       <c r="AS31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AT31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AU31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AV31" s="64">
@@ -11577,119 +11561,119 @@
         <v>1</v>
       </c>
       <c r="AW31" s="64">
-        <f t="shared" ref="AW31:AZ31" si="32">COUNTIF(AW5:AW24,"*TP*")</f>
+        <f t="shared" ref="AW31:AZ31" si="35">COUNTIF(AW5:AW24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="AX31" s="64">
-        <f t="shared" ref="AX31:AY31" si="33">COUNTIF(AX5:AX24,"*TP*")</f>
+        <f t="shared" ref="AX31:AY31" si="36">COUNTIF(AX5:AX24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="AY31" s="64">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="AZ31" s="64">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="BA31" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="BB31" s="64">
-        <f t="shared" ref="BB31:BY31" si="34">COUNTIF(BB5:BB24,"*TP*")</f>
+        <f t="shared" ref="BB31:BY31" si="37">COUNTIF(BB5:BB24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="BC31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="BD31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="BE31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="BF31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="BG31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="BH31" s="64">
-        <f t="shared" si="34"/>
+        <f>COUNTIF(BH5:BH26,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="BI31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="BI31:BY31" si="38">COUNTIF(BI5:BI26,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="BJ31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BK31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BL31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BM31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BN31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BO31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BP31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BQ31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BR31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BS31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BT31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BU31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BV31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BW31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BX31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="BY31" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -11709,115 +11693,115 @@
         <v>229</v>
       </c>
       <c r="K32" s="70">
-        <f t="shared" ref="K32:AD32" si="35">COUNTIF(K5:K24,"*GR*")</f>
+        <f t="shared" ref="K32:AD32" si="39">COUNTIF(K5:K24,"*GR*")</f>
         <v>2</v>
       </c>
       <c r="L32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="O32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="P32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Q32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="S32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="T32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="U32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="V32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="X32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="Y32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Z32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AA32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AB32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AC32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2</v>
       </c>
       <c r="AD32" s="70">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1</v>
       </c>
       <c r="AE32" s="70">
-        <f t="shared" ref="AE32:AH32" si="36">COUNTIF(AE5:AE24,"*GR*")</f>
+        <f t="shared" ref="AE32:AH32" si="40">COUNTIF(AE5:AE24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AF32" s="70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AG32" s="70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AH32" s="70">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AI32" s="70">
-        <f t="shared" ref="AI32:AL32" si="37">COUNTIF(AI5:AI24,"*GR*")</f>
+        <f t="shared" ref="AI32:AL32" si="41">COUNTIF(AI5:AI24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AK32" s="70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AL32" s="70">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="AM32" s="70">
@@ -11825,35 +11809,35 @@
         <v>0</v>
       </c>
       <c r="AN32" s="70">
-        <f t="shared" ref="AN32:BA32" si="38">COUNTIF(AN5:AN24,"*GR*")</f>
+        <f t="shared" ref="AN32:BA32" si="42">COUNTIF(AN5:AN24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AO32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AP32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AQ32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AR32" s="162">
-        <f t="shared" ref="AR32" si="39">COUNTIF(AR5:AR24,"*GR*")</f>
+        <f t="shared" ref="AR32" si="43">COUNTIF(AR5:AR24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AS32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AT32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AU32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AV32" s="70">
@@ -11861,119 +11845,119 @@
         <v>1</v>
       </c>
       <c r="AW32" s="70">
-        <f t="shared" ref="AW32:AZ32" si="40">COUNTIF(AW5:AW24,"*GR*")</f>
+        <f t="shared" ref="AW32:AZ32" si="44">COUNTIF(AW5:AW24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AX32" s="70">
-        <f t="shared" ref="AX32:AY32" si="41">COUNTIF(AX5:AX24,"*GR*")</f>
+        <f t="shared" ref="AX32:AY32" si="45">COUNTIF(AX5:AX24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="AY32" s="70">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AZ32" s="70">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="BA32" s="70">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="BB32" s="70">
-        <f t="shared" ref="BB32:BY32" si="42">COUNTIF(BB5:BB24,"*GR*")</f>
+        <f t="shared" ref="BB32:BY32" si="46">COUNTIF(BB5:BB24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="BC32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BD32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BE32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BF32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="BG32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="BH32" s="70">
-        <f t="shared" si="42"/>
+        <f>COUNTIF(BH5:BH26,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="BI32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="BI32:BY32" si="47">COUNTIF(BI5:BI26,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="BJ32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BK32" s="70">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="BL32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BM32" s="70">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="BN32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BO32" s="70">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="BP32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BQ32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BR32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BS32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BT32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BU32" s="70">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="BV32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BW32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BX32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="BY32" s="70">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
     </row>
@@ -11994,115 +11978,115 @@
         <v>232</v>
       </c>
       <c r="K33" s="64">
-        <f t="shared" ref="K33:AD33" si="43">COUNTIF(K5:K24,"*AU*")</f>
+        <f t="shared" ref="K33:AD33" si="48">COUNTIF(K5:K24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="L33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="M33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="N33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="O33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="P33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Q33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="S33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="T33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="U33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="V33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="W33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="X33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="Y33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AA33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AB33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AC33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>2</v>
       </c>
       <c r="AD33" s="64">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="AE33" s="64">
-        <f t="shared" ref="AE33:AH33" si="44">COUNTIF(AE5:AE24,"*AU*")</f>
+        <f t="shared" ref="AE33:AH33" si="49">COUNTIF(AE5:AE24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AF33" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AG33" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AH33" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AI33" s="64">
-        <f t="shared" ref="AI33:AL33" si="45">COUNTIF(AI5:AI24,"*AU*")</f>
+        <f t="shared" ref="AI33:AL33" si="50">COUNTIF(AI5:AI24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AJ33" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AK33" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AL33" s="64">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="AM33" s="64">
@@ -12110,35 +12094,35 @@
         <v>0</v>
       </c>
       <c r="AN33" s="64">
-        <f t="shared" ref="AN33:BA33" si="46">COUNTIF(AN5:AN24,"*AU*")</f>
+        <f t="shared" ref="AN33:BA33" si="51">COUNTIF(AN5:AN24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AO33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AP33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AQ33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AR33" s="162">
-        <f t="shared" ref="AR33" si="47">COUNTIF(AR5:AR24,"*AU*")</f>
+        <f t="shared" ref="AR33" si="52">COUNTIF(AR5:AR24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AS33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AT33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AU33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AV33" s="64">
@@ -12146,119 +12130,119 @@
         <v>1</v>
       </c>
       <c r="AW33" s="64">
-        <f t="shared" ref="AW33:AZ33" si="48">COUNTIF(AW5:AW24,"*AU*")</f>
+        <f t="shared" ref="AW33:AZ33" si="53">COUNTIF(AW5:AW24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AX33" s="64">
-        <f t="shared" ref="AX33:AY33" si="49">COUNTIF(AX5:AX24,"*AU*")</f>
+        <f t="shared" ref="AX33:AY33" si="54">COUNTIF(AX5:AX24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="AY33" s="64">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AZ33" s="64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="BA33" s="64">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="BB33" s="64">
-        <f t="shared" ref="BB33:BY33" si="50">COUNTIF(BB5:BB24,"*AU*")</f>
+        <f t="shared" ref="BB33:BY33" si="55">COUNTIF(BB5:BB24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="BC33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BD33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BE33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BF33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BG33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="BH33" s="64">
-        <f t="shared" si="50"/>
+        <f>COUNTIF(BH5:BH26,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="BI33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="BI33:BY33" si="56">COUNTIF(BI5:BI26,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="BJ33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BK33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BL33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BM33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BN33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BO33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BP33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BQ33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BR33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BS33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BT33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BU33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BV33" s="64">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BW33" s="64">
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="BM33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BN33" s="64">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BO33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BP33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BQ33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BR33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BS33" s="64">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BT33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BU33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BV33" s="64">
-        <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="BW33" s="64">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
       <c r="BX33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="BY33" s="64">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
     </row>
@@ -12278,115 +12262,115 @@
         <v>235</v>
       </c>
       <c r="K34" s="70">
-        <f t="shared" ref="K34:AD34" si="51">COUNTIF(K5:K24,"*TM*")</f>
+        <f t="shared" ref="K34:AD34" si="57">COUNTIF(K5:K24,"*TM*")</f>
         <v>0</v>
       </c>
       <c r="L34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="M34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="N34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="P34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="Q34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="R34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="S34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="U34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="V34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="X34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="Y34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Z34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AA34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="AB34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="AC34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="AD34" s="70">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="AE34" s="70">
-        <f t="shared" ref="AE34:AH34" si="52">COUNTIF(AE5:AE24,"*TM*")</f>
+        <f t="shared" ref="AE34:AH34" si="58">COUNTIF(AE5:AE24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="AF34" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AG34" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AH34" s="70">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AI34" s="70">
-        <f t="shared" ref="AI34:AL34" si="53">COUNTIF(AI5:AI24,"*TM*")</f>
+        <f t="shared" ref="AI34:AL34" si="59">COUNTIF(AI5:AI24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="AJ34" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AK34" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AL34" s="70">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="AM34" s="70">
@@ -12394,19 +12378,19 @@
         <v>2</v>
       </c>
       <c r="AN34" s="70">
-        <f t="shared" ref="AN34:BA34" si="54">COUNTIF(AN5:AN24,"*TM*")</f>
+        <f t="shared" ref="AN34:BA34" si="60">COUNTIF(AN5:AN24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="AO34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="AP34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AQ34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AR34" s="162">
@@ -12414,15 +12398,15 @@
         <v>1</v>
       </c>
       <c r="AS34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AT34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AU34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AV34" s="70">
@@ -12430,119 +12414,119 @@
         <v>1</v>
       </c>
       <c r="AW34" s="70">
-        <f t="shared" ref="AW34:AZ34" si="55">COUNTIF(AW5:AW24,"*TM*")</f>
+        <f t="shared" ref="AW34:AZ34" si="61">COUNTIF(AW5:AW24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="AX34" s="70">
-        <f t="shared" ref="AX34:AY34" si="56">COUNTIF(AX5:AX24,"*TM*")</f>
+        <f t="shared" ref="AX34:AY34" si="62">COUNTIF(AX5:AX24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="AY34" s="70">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="AZ34" s="70">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>1</v>
       </c>
       <c r="BA34" s="70">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="BB34" s="70">
-        <f t="shared" ref="BB34:BY34" si="57">COUNTIF(BB5:BB24,"*TM*")</f>
+        <f t="shared" ref="BB34:BY34" si="63">COUNTIF(BB5:BB24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="BC34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="BD34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="BE34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="BF34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="BG34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
       <c r="BH34" s="70">
-        <f t="shared" si="57"/>
+        <f>COUNTIF(BH5:BH26,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="BI34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="BI34:BY34" si="64">COUNTIF(BI5:BI26,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="BJ34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BK34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BL34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BM34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BN34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BO34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BP34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BQ34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BR34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BS34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BT34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BU34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BV34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0</v>
       </c>
       <c r="BW34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BX34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
       <c r="BY34" s="70">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>1</v>
       </c>
     </row>
@@ -12563,115 +12547,115 @@
         <v>237</v>
       </c>
       <c r="K35" s="64">
-        <f t="shared" ref="K35:AD35" si="58">COUNTIF(K5:K24,"*VC*")</f>
+        <f t="shared" ref="K35:AD35" si="65">COUNTIF(K5:K24,"*VC*")</f>
         <v>0</v>
       </c>
       <c r="L35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="M35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="N35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="O35" s="65">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="P35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="Q35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="R35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="S35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="T35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="U35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="V35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="W35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="X35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="Y35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Z35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AA35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="AB35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="AC35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="AD35" s="64">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
       <c r="AE35" s="64">
-        <f t="shared" ref="AE35:AH35" si="59">COUNTIF(AE5:AE24,"*VC*")</f>
+        <f t="shared" ref="AE35:AH35" si="66">COUNTIF(AE5:AE24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="AF35" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="AG35" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0</v>
       </c>
       <c r="AH35" s="64">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="AI35" s="64">
-        <f t="shared" ref="AI35:AL35" si="60">COUNTIF(AI5:AI24,"*VC*")</f>
+        <f t="shared" ref="AI35:AL35" si="67">COUNTIF(AI5:AI24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="AJ35" s="64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="AK35" s="64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="AL35" s="64">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="AM35" s="64">
@@ -12679,19 +12663,19 @@
         <v>1</v>
       </c>
       <c r="AN35" s="64">
-        <f t="shared" ref="AN35:BA35" si="61">COUNTIF(AN5:AN24,"*VC*")</f>
+        <f t="shared" ref="AN35:BA35" si="68">COUNTIF(AN5:AN24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="AO35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AP35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AQ35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AR35" s="162">
@@ -12699,15 +12683,15 @@
         <v>1</v>
       </c>
       <c r="AS35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="AT35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AU35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="AV35" s="64">
@@ -12715,119 +12699,119 @@
         <v>1</v>
       </c>
       <c r="AW35" s="64">
-        <f t="shared" ref="AW35:AZ35" si="62">COUNTIF(AW5:AW24,"*VC*")</f>
+        <f t="shared" ref="AW35:AZ35" si="69">COUNTIF(AW5:AW24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="AX35" s="64">
-        <f t="shared" ref="AX35:AY35" si="63">COUNTIF(AX5:AX24,"*VC*")</f>
+        <f t="shared" ref="AX35:AY35" si="70">COUNTIF(AX5:AX24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="AY35" s="64">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>1</v>
       </c>
       <c r="AZ35" s="64">
-        <f t="shared" si="62"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="BA35" s="64">
-        <f t="shared" si="61"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="BB35" s="64">
-        <f t="shared" ref="BB35:BY35" si="64">COUNTIF(BB5:BB24,"*VC*")</f>
+        <f t="shared" ref="BB35:BY35" si="71">COUNTIF(BB5:BB24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="BC35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BD35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BE35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BF35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BG35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="BH35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="BI35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="BI35:BY35" si="72">COUNTIF(BI5:BI24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="BJ35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BK35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BL35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BM35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BN35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BO35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BP35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BQ35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BR35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BS35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BT35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BU35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BV35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BW35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="BX35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="BY35" s="64">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
     </row>
@@ -12848,115 +12832,115 @@
         <v>239</v>
       </c>
       <c r="K36" s="191">
-        <f t="shared" ref="K36:AD36" si="65">COUNTIF(K5:K24,"*PS*")</f>
+        <f t="shared" ref="K36:AD36" si="73">COUNTIF(K5:K24,"*PS*")</f>
         <v>2</v>
       </c>
       <c r="L36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="M36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="N36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="O36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="P36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="Q36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="R36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="S36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="T36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="U36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="V36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="W36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>2</v>
       </c>
       <c r="X36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="Y36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="Z36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="AA36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="AB36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="AC36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="AD36" s="191">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>3</v>
       </c>
       <c r="AE36" s="191">
-        <f t="shared" ref="AE36:AH36" si="66">COUNTIF(AE5:AE24,"*PS*")</f>
+        <f t="shared" ref="AE36:AH36" si="74">COUNTIF(AE5:AE24,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="AF36" s="191">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="AG36" s="191">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="AH36" s="191">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>3</v>
       </c>
       <c r="AI36" s="191">
-        <f t="shared" ref="AI36:AL36" si="67">COUNTIF(AI5:AI24,"*PS*")</f>
+        <f t="shared" ref="AI36:AL36" si="75">COUNTIF(AI5:AI24,"*PS*")</f>
         <v>4</v>
       </c>
       <c r="AJ36" s="191">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="AK36" s="191">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>2</v>
       </c>
       <c r="AL36" s="191">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="AM36" s="191">
@@ -12964,19 +12948,19 @@
         <v>0</v>
       </c>
       <c r="AN36" s="191">
-        <f t="shared" ref="AN36:BA36" si="68">COUNTIF(AN5:AN24,"*PS*")</f>
+        <f t="shared" ref="AN36:BA36" si="76">COUNTIF(AN5:AN24,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="AO36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="AP36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AQ36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AR36" s="191">
@@ -12984,15 +12968,15 @@
         <v>3</v>
       </c>
       <c r="AS36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AT36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AU36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>3</v>
       </c>
       <c r="AV36" s="191">
@@ -13000,119 +12984,119 @@
         <v>2</v>
       </c>
       <c r="AW36" s="191">
-        <f t="shared" ref="AW36:AZ36" si="69">COUNTIF(AW5:AW24,"*PS*")</f>
+        <f t="shared" ref="AW36:AZ36" si="77">COUNTIF(AW5:AW24,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="AX36" s="191">
-        <f t="shared" ref="AX36:AY36" si="70">COUNTIF(AX5:AX24,"*PS*")</f>
+        <f t="shared" ref="AX36:AY36" si="78">COUNTIF(AX5:AX24,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="AY36" s="191">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>3</v>
       </c>
       <c r="AZ36" s="191">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>3</v>
       </c>
       <c r="BA36" s="191">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="BB36" s="191">
-        <f t="shared" ref="BB36:BY36" si="71">COUNTIF(BB5:BB24,"*PS*")</f>
+        <f t="shared" ref="BB36:BY36" si="79">COUNTIF(BB5:BB24,"*PS*")</f>
         <v>4</v>
       </c>
       <c r="BC36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="BD36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3</v>
       </c>
       <c r="BE36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
       <c r="BF36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>4</v>
       </c>
       <c r="BG36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>2</v>
       </c>
       <c r="BH36" s="191">
-        <f t="shared" si="71"/>
+        <f>COUNTIF(BH5:BH26,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="BI36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="BI36:BY36" si="80">COUNTIF(BI5:BI26,"*PS*")</f>
         <v>3</v>
       </c>
       <c r="BJ36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
         <v>4</v>
       </c>
       <c r="BK36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
+        <v>2</v>
+      </c>
+      <c r="BL36" s="191">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="BM36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BL36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BN36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BM36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BO36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BN36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BP36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BO36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BQ36" s="191">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="BR36" s="191">
+        <f t="shared" si="80"/>
+        <v>3</v>
+      </c>
+      <c r="BS36" s="191">
+        <f t="shared" si="80"/>
         <v>4</v>
       </c>
-      <c r="BP36" s="191">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="BQ36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BT36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BR36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BU36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BS36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BV36" s="191">
+        <f t="shared" si="80"/>
         <v>4</v>
       </c>
-      <c r="BT36" s="191">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
-      <c r="BU36" s="191">
-        <f t="shared" si="71"/>
+      <c r="BW36" s="191">
+        <f t="shared" si="80"/>
+        <v>4</v>
+      </c>
+      <c r="BX36" s="191">
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
-      <c r="BV36" s="191">
-        <f t="shared" si="71"/>
-        <v>4</v>
-      </c>
-      <c r="BW36" s="191">
-        <f t="shared" si="71"/>
-        <v>4</v>
-      </c>
-      <c r="BX36" s="191">
-        <f t="shared" si="71"/>
-        <v>2</v>
-      </c>
       <c r="BY36" s="191">
-        <f t="shared" si="71"/>
+        <f t="shared" si="80"/>
         <v>3</v>
       </c>
     </row>
@@ -13133,115 +13117,115 @@
         <v>241</v>
       </c>
       <c r="K37" s="79">
-        <f t="shared" ref="K37:AD37" si="72">COUNTIF(K5:K24,"*IE*")</f>
+        <f t="shared" ref="K37:AD37" si="81">COUNTIF(K5:K24,"*IE*")</f>
         <v>2</v>
       </c>
       <c r="L37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>2</v>
       </c>
       <c r="M37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="N37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="O37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>2</v>
       </c>
       <c r="P37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="Q37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="R37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="S37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="T37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="U37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="V37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="W37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="X37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>2</v>
       </c>
       <c r="Y37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="Z37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="AA37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>1</v>
       </c>
       <c r="AB37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>2</v>
       </c>
       <c r="AC37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="AD37" s="79">
-        <f t="shared" si="72"/>
+        <f t="shared" si="81"/>
         <v>3</v>
       </c>
       <c r="AE37" s="79">
-        <f t="shared" ref="AE37:AH37" si="73">COUNTIF(AE5:AE24,"*IE*")</f>
+        <f t="shared" ref="AE37:AH37" si="82">COUNTIF(AE5:AE24,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="AF37" s="79">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>3</v>
       </c>
       <c r="AG37" s="79">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AH37" s="79">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>4</v>
       </c>
       <c r="AI37" s="79">
-        <f t="shared" ref="AI37:AL37" si="74">COUNTIF(AI5:AI24,"*IE*")</f>
+        <f t="shared" ref="AI37:AL37" si="83">COUNTIF(AI5:AI24,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="AJ37" s="79">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="AK37" s="79">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="AL37" s="79">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>2</v>
       </c>
       <c r="AM37" s="79">
@@ -13249,19 +13233,19 @@
         <v>0</v>
       </c>
       <c r="AN37" s="79">
-        <f t="shared" ref="AN37:BA37" si="75">COUNTIF(AN5:AN24,"*IE*")</f>
+        <f t="shared" ref="AN37:BA37" si="84">COUNTIF(AN5:AN24,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="AO37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>1</v>
       </c>
       <c r="AP37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>3</v>
       </c>
       <c r="AQ37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>3</v>
       </c>
       <c r="AR37" s="163">
@@ -13269,15 +13253,15 @@
         <v>3</v>
       </c>
       <c r="AS37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>3</v>
       </c>
       <c r="AT37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>3</v>
       </c>
       <c r="AU37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>3</v>
       </c>
       <c r="AV37" s="79">
@@ -13285,119 +13269,119 @@
         <v>3</v>
       </c>
       <c r="AW37" s="79">
-        <f t="shared" ref="AW37:AZ37" si="76">COUNTIF(AW5:AW24,"*IE*")</f>
+        <f t="shared" ref="AW37:AZ37" si="85">COUNTIF(AW5:AW24,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="AX37" s="79">
-        <f t="shared" ref="AX37:AY37" si="77">COUNTIF(AX5:AX24,"*IE*")</f>
+        <f t="shared" ref="AX37:AY37" si="86">COUNTIF(AX5:AX24,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="AY37" s="79">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>3</v>
       </c>
       <c r="AZ37" s="79">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>3</v>
       </c>
       <c r="BA37" s="79">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>2</v>
       </c>
       <c r="BB37" s="79">
-        <f t="shared" ref="BB37:BY37" si="78">COUNTIF(BB5:BB24,"*IE*")</f>
+        <f t="shared" ref="BB37:BY37" si="87">COUNTIF(BB5:BB24,"*IE*")</f>
         <v>4</v>
       </c>
       <c r="BC37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="BD37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="BE37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>4</v>
       </c>
       <c r="BF37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>4</v>
       </c>
       <c r="BG37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>3</v>
       </c>
       <c r="BH37" s="79">
-        <f t="shared" si="78"/>
+        <f>COUNTIF(BH5:BH26,"*IE*")</f>
         <v>3</v>
       </c>
       <c r="BI37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="BI37:BY37" si="88">COUNTIF(BI5:BI26,"*IE*")</f>
+        <v>3</v>
+      </c>
+      <c r="BJ37" s="79">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="BK37" s="79">
+        <f t="shared" si="88"/>
         <v>2</v>
       </c>
-      <c r="BJ37" s="79">
-        <f t="shared" si="78"/>
+      <c r="BL37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BM37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BN37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BO37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BP37" s="79">
+        <f t="shared" si="88"/>
         <v>4</v>
       </c>
-      <c r="BK37" s="79">
-        <f t="shared" si="78"/>
+      <c r="BQ37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BR37" s="79">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="BS37" s="79">
+        <f t="shared" si="88"/>
         <v>4</v>
       </c>
-      <c r="BL37" s="79">
-        <f t="shared" si="78"/>
+      <c r="BT37" s="79">
+        <f t="shared" si="88"/>
         <v>4</v>
       </c>
-      <c r="BM37" s="79">
-        <f t="shared" si="78"/>
+      <c r="BU37" s="79">
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
-      <c r="BN37" s="79">
-        <f t="shared" si="78"/>
+      <c r="BV37" s="79">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="BW37" s="79">
+        <f t="shared" si="88"/>
+        <v>4</v>
+      </c>
+      <c r="BX37" s="79">
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
-      <c r="BO37" s="79">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="BP37" s="79">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="BQ37" s="79">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="BR37" s="79">
-        <f t="shared" si="78"/>
-        <v>2</v>
-      </c>
-      <c r="BS37" s="79">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="BT37" s="79">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="BU37" s="79">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="BV37" s="79">
-        <f t="shared" si="78"/>
-        <v>4</v>
-      </c>
-      <c r="BW37" s="79">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
-      <c r="BX37" s="79">
-        <f t="shared" si="78"/>
-        <v>3</v>
-      </c>
       <c r="BY37" s="79">
-        <f t="shared" si="78"/>
+        <f t="shared" si="88"/>
         <v>3</v>
       </c>
     </row>
@@ -13421,71 +13405,71 @@
         <v>1</v>
       </c>
       <c r="L38" s="70">
-        <f t="shared" ref="L38:AD38" si="79">COUNTIF(L5:L24,"*GE*")</f>
+        <f t="shared" ref="L38:AD38" si="89">COUNTIF(L5:L24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="M38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="N38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="O38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="P38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="Q38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="R38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="S38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="T38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="U38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="V38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="W38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="X38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="Y38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="Z38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="AA38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="AB38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="AC38" s="70">
@@ -13493,39 +13477,39 @@
         <v>1</v>
       </c>
       <c r="AD38" s="70">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1</v>
       </c>
       <c r="AE38" s="70">
-        <f t="shared" ref="AE38:AH38" si="80">COUNTIF(AE5:AE24,"*GE*")</f>
+        <f t="shared" ref="AE38:AH38" si="90">COUNTIF(AE5:AE24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="AF38" s="70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>2</v>
       </c>
       <c r="AG38" s="70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="AH38" s="70">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>1</v>
       </c>
       <c r="AI38" s="70">
-        <f t="shared" ref="AI38:AL38" si="81">COUNTIF(AI5:AI24,"*GE*")</f>
+        <f t="shared" ref="AI38:AL38" si="91">COUNTIF(AI5:AI24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="AJ38" s="70">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="AK38" s="70">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="AL38" s="70">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1</v>
       </c>
       <c r="AM38" s="70">
@@ -13533,19 +13517,19 @@
         <v>1</v>
       </c>
       <c r="AN38" s="70">
-        <f t="shared" ref="AN38:BA38" si="82">COUNTIF(AN5:AN24,"*GE*")</f>
+        <f t="shared" ref="AN38:BA38" si="92">COUNTIF(AN5:AN24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="AO38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="AP38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AQ38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AR38" s="162">
@@ -13553,15 +13537,15 @@
         <v>1</v>
       </c>
       <c r="AS38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AT38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AU38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="AV38" s="70">
@@ -13569,119 +13553,119 @@
         <v>1</v>
       </c>
       <c r="AW38" s="70">
-        <f t="shared" ref="AW38:AZ38" si="83">COUNTIF(AW5:AW24,"*GE*")</f>
+        <f t="shared" ref="AW38:AZ38" si="93">COUNTIF(AW5:AW24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="AX38" s="70">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="AY38" s="70">
-        <f t="shared" ref="AY38" si="84">COUNTIF(AY5:AY24,"*GE*")</f>
+        <f t="shared" ref="AY38" si="94">COUNTIF(AY5:AY24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="AZ38" s="70">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>1</v>
       </c>
       <c r="BA38" s="70">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>1</v>
       </c>
       <c r="BB38" s="70">
-        <f t="shared" ref="BB38:BY38" si="85">COUNTIF(BB5:BB24,"*GE*")</f>
+        <f t="shared" ref="BB38:BY38" si="95">COUNTIF(BB5:BB24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="BC38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="BD38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="BE38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="BF38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="BG38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="95"/>
         <v>1</v>
       </c>
       <c r="BH38" s="70">
-        <f t="shared" si="85"/>
+        <f>COUNTIF(BH5:BH26,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="BI38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="BI38:BY38" si="96">COUNTIF(BI5:BI26,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="BJ38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BK38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BL38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BM38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BN38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BO38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BP38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BQ38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BR38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BS38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BT38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BU38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BV38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BW38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BX38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
       <c r="BY38" s="70">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>1</v>
       </c>
     </row>

--- a/Tsudanuma Role assignments.xlsx
+++ b/Tsudanuma Role assignments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\Tsudanuma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayuki.tanaka\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF65D2D-09F5-4464-9402-ACE9D0E27451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC4EA89-59F1-424E-BDAA-FAF0AFB0D11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2850" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Assignt" sheetId="8" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4260" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="516">
   <si>
     <t>Customer ID</t>
   </si>
@@ -3570,7 +3570,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4150,13 +4150,7 @@
     <xf numFmtId="0" fontId="21" fillId="54" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="55" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="56" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4296,6 +4290,9 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -5536,10 +5533,10 @@
   <dimension ref="A1:CB49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="BH9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="BI5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5555,8 +5552,8 @@
     <col min="20" max="20" width="9.25" style="2" hidden="1" customWidth="1"/>
     <col min="21" max="29" width="9.625" style="2" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9.375" style="2" hidden="1" customWidth="1"/>
-    <col min="31" max="59" width="9.625" style="2" hidden="1" customWidth="1"/>
-    <col min="60" max="77" width="9.625" style="2" customWidth="1"/>
+    <col min="31" max="60" width="9.625" style="2" hidden="1" customWidth="1"/>
+    <col min="61" max="77" width="9.625" style="2" customWidth="1"/>
     <col min="78" max="78" width="15.5" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -6308,10 +6305,10 @@
       <c r="BC5" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="BD5" s="194" t="s">
+      <c r="BD5" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BE5" s="199" t="s">
+      <c r="BE5" s="197" t="s">
         <v>250</v>
       </c>
       <c r="BF5" s="192" t="s">
@@ -6320,58 +6317,58 @@
       <c r="BG5" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="BH5" s="194" t="s">
+      <c r="BH5" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BI5" s="201" t="s">
+      <c r="BI5" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BJ5" s="192" t="s">
+      <c r="BJ5" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BK5" s="194" t="s">
+      <c r="BK5" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BL5" s="197" t="s">
+      <c r="BL5" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BM5" s="194" t="s">
+      <c r="BM5" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BN5" s="177" t="s">
+      <c r="BN5" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BO5" s="192" t="s">
+      <c r="BO5" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BP5" s="196" t="s">
+      <c r="BP5" s="173" t="s">
         <v>159</v>
       </c>
       <c r="BQ5" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BR5" s="182" t="s">
+      <c r="BR5" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BS5" s="196" t="s">
+      <c r="BS5" s="173" t="s">
         <v>425</v>
       </c>
       <c r="BT5" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="BU5" s="199" t="s">
+      <c r="BU5" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BV5" s="194" t="s">
+      <c r="BV5" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BW5" s="192" t="s">
+      <c r="BW5" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BX5" s="194" t="s">
+      <c r="BX5" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BY5" s="192" t="s">
+      <c r="BY5" s="173" t="s">
         <v>147</v>
       </c>
       <c r="BZ5" s="168" t="s">
@@ -6530,10 +6527,10 @@
       <c r="BA6" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="BB6" s="194" t="s">
+      <c r="BB6" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BC6" s="196" t="s">
+      <c r="BC6" s="194" t="s">
         <v>159</v>
       </c>
       <c r="BD6" s="182" t="s">
@@ -6542,64 +6539,64 @@
       <c r="BE6" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BF6" s="194" t="s">
+      <c r="BF6" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BG6" s="196" t="s">
+      <c r="BG6" s="194" t="s">
         <v>425</v>
       </c>
       <c r="BH6" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="BI6" s="192" t="s">
+      <c r="BI6" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BJ6" s="194" t="s">
+      <c r="BJ6" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BK6" s="199" t="s">
+      <c r="BK6" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BL6" s="198" t="s">
+      <c r="BL6" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="BM6" s="192" t="s">
+      <c r="BM6" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BN6" s="194" t="s">
+      <c r="BN6" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BO6" s="177" t="s">
+      <c r="BO6" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BP6" s="197" t="s">
+      <c r="BP6" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BQ6" s="192" t="s">
+      <c r="BQ6" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BR6" s="199" t="s">
+      <c r="BR6" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BS6" s="195" t="s">
+      <c r="BS6" s="240" t="s">
         <v>149</v>
       </c>
-      <c r="BT6" s="182" t="s">
+      <c r="BT6" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BU6" s="192" t="s">
+      <c r="BU6" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BV6" s="180" t="s">
+      <c r="BV6" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BW6" s="197" t="s">
+      <c r="BW6" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="BX6" s="194" t="s">
+      <c r="BX6" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BY6" s="192" t="s">
+      <c r="BY6" s="173" t="s">
         <v>147</v>
       </c>
       <c r="BZ6" s="168" t="s">
@@ -6680,26 +6677,26 @@
       <c r="BC7" s="174"/>
       <c r="BD7" s="174"/>
       <c r="BE7" s="174"/>
-      <c r="BF7" s="194"/>
+      <c r="BF7" s="193"/>
       <c r="BG7" s="174"/>
       <c r="BH7" s="174"/>
-      <c r="BI7" s="174"/>
-      <c r="BJ7" s="194"/>
-      <c r="BK7" s="174"/>
-      <c r="BL7" s="174"/>
-      <c r="BM7" s="174"/>
-      <c r="BN7" s="194"/>
-      <c r="BO7" s="174"/>
-      <c r="BP7" s="174"/>
-      <c r="BQ7" s="174"/>
-      <c r="BR7" s="174"/>
-      <c r="BS7" s="174"/>
-      <c r="BT7" s="174"/>
-      <c r="BU7" s="174"/>
-      <c r="BV7" s="174"/>
-      <c r="BW7" s="174"/>
-      <c r="BX7" s="174"/>
-      <c r="BY7" s="174"/>
+      <c r="BI7" s="173"/>
+      <c r="BJ7" s="173"/>
+      <c r="BK7" s="173"/>
+      <c r="BL7" s="173"/>
+      <c r="BM7" s="173"/>
+      <c r="BN7" s="173"/>
+      <c r="BO7" s="173"/>
+      <c r="BP7" s="173"/>
+      <c r="BQ7" s="173"/>
+      <c r="BR7" s="173"/>
+      <c r="BS7" s="173"/>
+      <c r="BT7" s="173"/>
+      <c r="BU7" s="173"/>
+      <c r="BV7" s="173"/>
+      <c r="BW7" s="173"/>
+      <c r="BX7" s="173"/>
+      <c r="BY7" s="173"/>
       <c r="BZ7" s="168" t="s">
         <v>178</v>
       </c>
@@ -6862,70 +6859,70 @@
       <c r="BC8" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BD8" s="194" t="s">
+      <c r="BD8" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BE8" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="BF8" s="194" t="s">
+      <c r="BF8" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BG8" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BH8" s="196" t="s">
+      <c r="BH8" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="BI8" s="180" t="s">
+      <c r="BI8" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BJ8" s="194" t="s">
+      <c r="BJ8" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BK8" s="200" t="s">
+      <c r="BK8" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BL8" s="192" t="s">
+      <c r="BL8" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BM8" s="196" t="s">
+      <c r="BM8" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="BN8" s="194" t="s">
+      <c r="BN8" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BO8" s="199" t="s">
+      <c r="BO8" s="173" t="s">
         <v>250</v>
       </c>
-      <c r="BP8" s="177" t="s">
+      <c r="BP8" s="173" t="s">
         <v>152</v>
       </c>
-      <c r="BQ8" s="194" t="s">
+      <c r="BQ8" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BR8" s="200" t="s">
+      <c r="BR8" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BS8" s="182" t="s">
+      <c r="BS8" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="BT8" s="193" t="s">
+      <c r="BT8" s="240" t="s">
         <v>147</v>
       </c>
-      <c r="BU8" s="200" t="s">
+      <c r="BU8" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="BV8" s="194" t="s">
+      <c r="BV8" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BW8" s="180" t="s">
+      <c r="BW8" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="BX8" s="192" t="s">
+      <c r="BX8" s="173" t="s">
         <v>147</v>
       </c>
-      <c r="BY8" s="194" t="s">
+      <c r="BY8" s="173" t="s">
         <v>149</v>
       </c>
       <c r="BZ8" s="168" t="s">
@@ -7088,7 +7085,7 @@
       <c r="BA9" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="BB9" s="194" t="s">
+      <c r="BB9" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BC9" s="177" t="s">
@@ -7097,13 +7094,13 @@
       <c r="BD9" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BE9" s="200" t="s">
+      <c r="BE9" s="198" t="s">
         <v>430</v>
       </c>
       <c r="BF9" s="182" t="s">
         <v>95</v>
       </c>
-      <c r="BG9" s="198" t="s">
+      <c r="BG9" s="196" t="s">
         <v>66</v>
       </c>
       <c r="BH9" s="173" t="s">
@@ -7318,10 +7315,10 @@
       <c r="BA10" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="BB10" s="194" t="s">
+      <c r="BB10" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BC10" s="200" t="s">
+      <c r="BC10" s="198" t="s">
         <v>154</v>
       </c>
       <c r="BD10" s="177" t="s">
@@ -7330,7 +7327,7 @@
       <c r="BE10" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BF10" s="194" t="s">
+      <c r="BF10" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BG10" s="182" t="s">
@@ -7510,10 +7507,10 @@
       <c r="BA11" s="121" t="s">
         <v>72</v>
       </c>
-      <c r="BB11" s="198" t="s">
+      <c r="BB11" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="BC11" s="201" t="s">
+      <c r="BC11" s="199" t="s">
         <v>155</v>
       </c>
       <c r="BD11" s="173"/>
@@ -7530,17 +7527,13 @@
       <c r="BO11" s="173"/>
       <c r="BP11" s="173"/>
       <c r="BQ11" s="173"/>
-      <c r="BR11" s="173" t="s">
-        <v>161</v>
-      </c>
+      <c r="BR11" s="173"/>
       <c r="BS11" s="173"/>
       <c r="BT11" s="173"/>
       <c r="BU11" s="173"/>
       <c r="BV11" s="173"/>
       <c r="BW11" s="173"/>
-      <c r="BX11" s="173" t="s">
-        <v>72</v>
-      </c>
+      <c r="BX11" s="173"/>
       <c r="BY11" s="173"/>
       <c r="BZ11" s="168" t="s">
         <v>6</v>
@@ -7701,10 +7694,10 @@
       <c r="BB12" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BC12" s="198" t="s">
+      <c r="BC12" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="BD12" s="194" t="s">
+      <c r="BD12" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BE12" s="177" t="s">
@@ -7713,7 +7706,7 @@
       <c r="BF12" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BG12" s="197" t="s">
+      <c r="BG12" s="195" t="s">
         <v>72</v>
       </c>
       <c r="BH12" s="173" t="s">
@@ -7930,16 +7923,16 @@
       <c r="BA13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BB13" s="194" t="s">
+      <c r="BB13" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BC13" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BD13" s="196" t="s">
+      <c r="BD13" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="BE13" s="194" t="s">
+      <c r="BE13" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BF13" s="177" t="s">
@@ -8159,19 +8152,19 @@
       <c r="BB14" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="BC14" s="194" t="s">
+      <c r="BC14" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BD14" s="198" t="s">
+      <c r="BD14" s="196" t="s">
         <v>66</v>
       </c>
       <c r="BE14" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BF14" s="194" t="s">
+      <c r="BF14" s="193" t="s">
         <v>149</v>
       </c>
-      <c r="BG14" s="200" t="s">
+      <c r="BG14" s="198" t="s">
         <v>154</v>
       </c>
       <c r="BH14" s="173" t="s">
@@ -8360,19 +8353,19 @@
         <v>72</v>
       </c>
       <c r="BA15" s="3"/>
-      <c r="BB15" s="197" t="s">
+      <c r="BB15" s="195" t="s">
         <v>72</v>
       </c>
-      <c r="BC15" s="199" t="s">
+      <c r="BC15" s="197" t="s">
         <v>250</v>
       </c>
-      <c r="BD15" s="201" t="s">
+      <c r="BD15" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="BE15" s="196" t="s">
+      <c r="BE15" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="BF15" s="198" t="s">
+      <c r="BF15" s="196" t="s">
         <v>66</v>
       </c>
       <c r="BG15" s="173"/>
@@ -8688,19 +8681,19 @@
       <c r="BA17" s="176" t="s">
         <v>152</v>
       </c>
-      <c r="BB17" s="200" t="s">
+      <c r="BB17" s="198" t="s">
         <v>429</v>
       </c>
-      <c r="BC17" s="194" t="s">
+      <c r="BC17" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BD17" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BE17" s="194" t="s">
+      <c r="BE17" s="193" t="s">
         <v>508</v>
       </c>
-      <c r="BF17" s="196" t="s">
+      <c r="BF17" s="194" t="s">
         <v>431</v>
       </c>
       <c r="BG17" s="177" t="s">
@@ -8724,7 +8717,9 @@
       <c r="BM17" s="173" t="s">
         <v>149</v>
       </c>
-      <c r="BN17" s="173"/>
+      <c r="BN17" s="173" t="s">
+        <v>95</v>
+      </c>
       <c r="BO17" s="173" t="s">
         <v>151</v>
       </c>
@@ -8732,7 +8727,9 @@
         <v>149</v>
       </c>
       <c r="BQ17" s="173"/>
-      <c r="BR17" s="173"/>
+      <c r="BR17" s="173" t="s">
+        <v>161</v>
+      </c>
       <c r="BS17" s="173" t="s">
         <v>66</v>
       </c>
@@ -8742,7 +8739,9 @@
       <c r="BU17" s="173"/>
       <c r="BV17" s="173"/>
       <c r="BW17" s="173"/>
-      <c r="BX17" s="173"/>
+      <c r="BX17" s="173" t="s">
+        <v>72</v>
+      </c>
       <c r="BY17" s="173"/>
       <c r="BZ17" s="168"/>
       <c r="CA17" s="5" t="s">
@@ -9057,37 +9056,37 @@
       <c r="AZ19" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="BA19" s="202" t="s">
+      <c r="BA19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BB19" s="202" t="s">
+      <c r="BB19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BC19" s="202" t="s">
+      <c r="BC19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BD19" s="202" t="s">
+      <c r="BD19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BE19" s="202" t="s">
+      <c r="BE19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BF19" s="202" t="s">
+      <c r="BF19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BG19" s="202" t="s">
+      <c r="BG19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BH19" s="202" t="s">
+      <c r="BH19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BI19" s="202" t="s">
+      <c r="BI19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BJ19" s="202" t="s">
+      <c r="BJ19" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BK19" s="202" t="s">
+      <c r="BK19" s="200" t="s">
         <v>427</v>
       </c>
       <c r="BL19" s="173" t="s">
@@ -9099,7 +9098,9 @@
       <c r="BN19" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="BO19" s="173"/>
+      <c r="BO19" s="173" t="s">
+        <v>147</v>
+      </c>
       <c r="BP19" s="173" t="s">
         <v>151</v>
       </c>
@@ -9269,10 +9270,10 @@
       <c r="AZ20" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BA20" s="202" t="s">
+      <c r="BA20" s="200" t="s">
         <v>427</v>
       </c>
-      <c r="BB20" s="201" t="s">
+      <c r="BB20" s="199" t="s">
         <v>155</v>
       </c>
       <c r="BC20" s="180" t="s">
@@ -9284,10 +9285,10 @@
       <c r="BE20" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BF20" s="200" t="s">
+      <c r="BF20" s="198" t="s">
         <v>509</v>
       </c>
-      <c r="BG20" s="194" t="s">
+      <c r="BG20" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BH20" s="173" t="s">
@@ -9491,19 +9492,19 @@
       <c r="BB21" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BC21" s="197" t="s">
+      <c r="BC21" s="195" t="s">
         <v>72</v>
       </c>
       <c r="BD21" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="BE21" s="194" t="s">
+      <c r="BE21" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BF21" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BG21" s="194" t="s">
+      <c r="BG21" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BH21" s="173" t="s">
@@ -9516,24 +9517,12 @@
         <v>152</v>
       </c>
       <c r="BK21" s="173"/>
-      <c r="BL21" s="173" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM21" s="173" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN21" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="BO21" s="173" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP21" s="173" t="s">
-        <v>149</v>
-      </c>
-      <c r="BQ21" s="173" t="s">
-        <v>154</v>
-      </c>
+      <c r="BL21" s="173"/>
+      <c r="BM21" s="173"/>
+      <c r="BN21" s="173"/>
+      <c r="BO21" s="173"/>
+      <c r="BP21" s="173"/>
+      <c r="BQ21" s="173"/>
       <c r="BR21" s="173" t="s">
         <v>151</v>
       </c>
@@ -9649,7 +9638,7 @@
       <c r="BB22" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="BC22" s="194" t="s">
+      <c r="BC22" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BD22" s="192" t="s">
@@ -9658,10 +9647,10 @@
       <c r="BE22" s="180" t="s">
         <v>151</v>
       </c>
-      <c r="BF22" s="201" t="s">
+      <c r="BF22" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="BG22" s="194" t="s">
+      <c r="BG22" s="193" t="s">
         <v>149</v>
       </c>
       <c r="BH22" s="173" t="s">
@@ -9810,10 +9799,10 @@
       <c r="BC23" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="BD23" s="197" t="s">
+      <c r="BD23" s="195" t="s">
         <v>507</v>
       </c>
-      <c r="BE23" s="198" t="s">
+      <c r="BE23" s="196" t="s">
         <v>426</v>
       </c>
       <c r="BF23" s="180" t="s">
@@ -9867,13 +9856,13 @@
       <c r="CB23" s="5"/>
     </row>
     <row r="24" spans="1:80" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="240">
+      <c r="A24" s="238">
         <v>2119690</v>
       </c>
       <c r="B24" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="C24" s="241" t="s">
+      <c r="C24" s="239" t="s">
         <v>408</v>
       </c>
       <c r="D24" s="149"/>
@@ -9950,10 +9939,10 @@
       <c r="BC24" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="BD24" s="199" t="s">
+      <c r="BD24" s="197" t="s">
         <v>250</v>
       </c>
-      <c r="BE24" s="197" t="s">
+      <c r="BE24" s="195" t="s">
         <v>72</v>
       </c>
       <c r="BF24" s="192" t="s">
@@ -10028,115 +10017,117 @@
       <c r="C25" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="D25" s="221"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="225"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="226"/>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="226"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="226"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="226"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="226"/>
-      <c r="U25" s="226"/>
-      <c r="V25" s="228"/>
-      <c r="W25" s="226"/>
-      <c r="X25" s="226"/>
-      <c r="Y25" s="226"/>
-      <c r="Z25" s="227"/>
-      <c r="AA25" s="226"/>
-      <c r="AB25" s="227"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="226"/>
-      <c r="AE25" s="226"/>
-      <c r="AF25" s="229"/>
-      <c r="AG25" s="229"/>
-      <c r="AH25" s="229"/>
-      <c r="AI25" s="227"/>
-      <c r="AJ25" s="229"/>
-      <c r="AK25" s="230"/>
-      <c r="AL25" s="229"/>
-      <c r="AM25" s="226"/>
-      <c r="AN25" s="229"/>
-      <c r="AO25" s="229"/>
-      <c r="AP25" s="229"/>
-      <c r="AQ25" s="229"/>
-      <c r="AR25" s="231"/>
-      <c r="AS25" s="226"/>
-      <c r="AT25" s="229"/>
-      <c r="AU25" s="232"/>
-      <c r="AV25" s="232"/>
-      <c r="AW25" s="229"/>
-      <c r="AX25" s="233"/>
-      <c r="AY25" s="234"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="220"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="225"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="225"/>
+      <c r="T25" s="224"/>
+      <c r="U25" s="224"/>
+      <c r="V25" s="226"/>
+      <c r="W25" s="224"/>
+      <c r="X25" s="224"/>
+      <c r="Y25" s="224"/>
+      <c r="Z25" s="225"/>
+      <c r="AA25" s="224"/>
+      <c r="AB25" s="225"/>
+      <c r="AC25" s="224"/>
+      <c r="AD25" s="224"/>
+      <c r="AE25" s="224"/>
+      <c r="AF25" s="227"/>
+      <c r="AG25" s="227"/>
+      <c r="AH25" s="227"/>
+      <c r="AI25" s="225"/>
+      <c r="AJ25" s="227"/>
+      <c r="AK25" s="228"/>
+      <c r="AL25" s="227"/>
+      <c r="AM25" s="224"/>
+      <c r="AN25" s="227"/>
+      <c r="AO25" s="227"/>
+      <c r="AP25" s="227"/>
+      <c r="AQ25" s="227"/>
+      <c r="AR25" s="229"/>
+      <c r="AS25" s="224"/>
+      <c r="AT25" s="227"/>
+      <c r="AU25" s="230"/>
+      <c r="AV25" s="230"/>
+      <c r="AW25" s="227"/>
+      <c r="AX25" s="231"/>
+      <c r="AY25" s="232"/>
       <c r="AZ25" s="32"/>
-      <c r="BA25" s="233"/>
-      <c r="BB25" s="235"/>
-      <c r="BC25" s="236"/>
-      <c r="BD25" s="237"/>
-      <c r="BE25" s="238"/>
-      <c r="BF25" s="235"/>
-      <c r="BG25" s="236"/>
-      <c r="BH25" s="239" t="s">
+      <c r="BA25" s="231"/>
+      <c r="BB25" s="233"/>
+      <c r="BC25" s="234"/>
+      <c r="BD25" s="235"/>
+      <c r="BE25" s="236"/>
+      <c r="BF25" s="233"/>
+      <c r="BG25" s="234"/>
+      <c r="BH25" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="BI25" s="239" t="s">
+      <c r="BI25" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="BJ25" s="239" t="s">
+      <c r="BJ25" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="BK25" s="239" t="s">
+      <c r="BK25" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="BL25" s="239" t="s">
+      <c r="BL25" s="237" t="s">
+        <v>430</v>
+      </c>
+      <c r="BM25" s="237" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN25" s="237" t="s">
+        <v>72</v>
+      </c>
+      <c r="BO25" s="237" t="s">
+        <v>159</v>
+      </c>
+      <c r="BP25" s="237" t="s">
+        <v>147</v>
+      </c>
+      <c r="BQ25" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="BM25" s="239" t="s">
+      <c r="BR25" s="237" t="s">
+        <v>149</v>
+      </c>
+      <c r="BS25" s="237" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT25" s="237"/>
+      <c r="BU25" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="BN25" s="239" t="s">
-        <v>72</v>
-      </c>
-      <c r="BO25" s="239" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP25" s="239" t="s">
+      <c r="BV25" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="BW25" s="237" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX25" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="BQ25" s="239"/>
-      <c r="BR25" s="239" t="s">
-        <v>149</v>
-      </c>
-      <c r="BS25" s="239" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT25" s="239"/>
-      <c r="BU25" s="239" t="s">
-        <v>155</v>
-      </c>
-      <c r="BV25" s="239" t="s">
-        <v>66</v>
-      </c>
-      <c r="BW25" s="239" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX25" s="239" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY25" s="239" t="s">
+      <c r="BY25" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BZ25" s="210"/>
-      <c r="CA25" s="210"/>
-      <c r="CB25" s="210"/>
+      <c r="BZ25" s="208"/>
+      <c r="CA25" s="208"/>
+      <c r="CB25" s="208"/>
     </row>
     <row r="26" spans="1:80" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="158">
@@ -10148,111 +10139,115 @@
       <c r="C26" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="225"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="226"/>
-      <c r="L26" s="226"/>
-      <c r="M26" s="226"/>
-      <c r="N26" s="226"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="226"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="226"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="226"/>
-      <c r="U26" s="226"/>
-      <c r="V26" s="228"/>
-      <c r="W26" s="226"/>
-      <c r="X26" s="226"/>
-      <c r="Y26" s="226"/>
-      <c r="Z26" s="227"/>
-      <c r="AA26" s="226"/>
-      <c r="AB26" s="227"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="226"/>
-      <c r="AE26" s="226"/>
-      <c r="AF26" s="229"/>
-      <c r="AG26" s="229"/>
-      <c r="AH26" s="229"/>
-      <c r="AI26" s="227"/>
-      <c r="AJ26" s="229"/>
-      <c r="AK26" s="230"/>
-      <c r="AL26" s="229"/>
-      <c r="AM26" s="226"/>
-      <c r="AN26" s="229"/>
-      <c r="AO26" s="229"/>
-      <c r="AP26" s="229"/>
-      <c r="AQ26" s="229"/>
-      <c r="AR26" s="231"/>
-      <c r="AS26" s="226"/>
-      <c r="AT26" s="229"/>
-      <c r="AU26" s="232"/>
-      <c r="AV26" s="232"/>
-      <c r="AW26" s="229"/>
-      <c r="AX26" s="233"/>
-      <c r="AY26" s="234"/>
+      <c r="D26" s="219"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="225"/>
+      <c r="T26" s="224"/>
+      <c r="U26" s="224"/>
+      <c r="V26" s="226"/>
+      <c r="W26" s="224"/>
+      <c r="X26" s="224"/>
+      <c r="Y26" s="224"/>
+      <c r="Z26" s="225"/>
+      <c r="AA26" s="224"/>
+      <c r="AB26" s="225"/>
+      <c r="AC26" s="224"/>
+      <c r="AD26" s="224"/>
+      <c r="AE26" s="224"/>
+      <c r="AF26" s="227"/>
+      <c r="AG26" s="227"/>
+      <c r="AH26" s="227"/>
+      <c r="AI26" s="225"/>
+      <c r="AJ26" s="227"/>
+      <c r="AK26" s="228"/>
+      <c r="AL26" s="227"/>
+      <c r="AM26" s="224"/>
+      <c r="AN26" s="227"/>
+      <c r="AO26" s="227"/>
+      <c r="AP26" s="227"/>
+      <c r="AQ26" s="227"/>
+      <c r="AR26" s="229"/>
+      <c r="AS26" s="224"/>
+      <c r="AT26" s="227"/>
+      <c r="AU26" s="230"/>
+      <c r="AV26" s="230"/>
+      <c r="AW26" s="227"/>
+      <c r="AX26" s="231"/>
+      <c r="AY26" s="232"/>
       <c r="AZ26" s="32"/>
-      <c r="BA26" s="233"/>
-      <c r="BB26" s="235"/>
-      <c r="BC26" s="236"/>
-      <c r="BD26" s="237"/>
-      <c r="BE26" s="238"/>
-      <c r="BF26" s="235"/>
-      <c r="BG26" s="236"/>
-      <c r="BH26" s="239" t="s">
+      <c r="BA26" s="231"/>
+      <c r="BB26" s="233"/>
+      <c r="BC26" s="234"/>
+      <c r="BD26" s="235"/>
+      <c r="BE26" s="236"/>
+      <c r="BF26" s="233"/>
+      <c r="BG26" s="234"/>
+      <c r="BH26" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BI26" s="239" t="s">
+      <c r="BI26" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="BJ26" s="239" t="s">
+      <c r="BJ26" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BK26" s="239" t="s">
+      <c r="BK26" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="BL26" s="239" t="s">
+      <c r="BL26" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="BM26" s="239"/>
-      <c r="BN26" s="239" t="s">
+      <c r="BM26" s="237" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN26" s="237" t="s">
         <v>154</v>
       </c>
-      <c r="BO26" s="239" t="s">
+      <c r="BO26" s="237" t="s">
         <v>155</v>
       </c>
-      <c r="BP26" s="239"/>
-      <c r="BQ26" s="239" t="s">
+      <c r="BP26" s="237" t="s">
+        <v>149</v>
+      </c>
+      <c r="BQ26" s="237" t="s">
         <v>159</v>
       </c>
-      <c r="BR26" s="239"/>
-      <c r="BS26" s="239" t="s">
+      <c r="BR26" s="237"/>
+      <c r="BS26" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BT26" s="239" t="s">
+      <c r="BT26" s="237" t="s">
         <v>147</v>
       </c>
-      <c r="BU26" s="239" t="s">
+      <c r="BU26" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="BV26" s="239" t="s">
+      <c r="BV26" s="237" t="s">
         <v>152</v>
       </c>
-      <c r="BW26" s="239" t="s">
+      <c r="BW26" s="237" t="s">
         <v>161</v>
       </c>
-      <c r="BX26" s="239"/>
-      <c r="BY26" s="239" t="s">
+      <c r="BX26" s="237"/>
+      <c r="BY26" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="BZ26" s="210"/>
-      <c r="CA26" s="210"/>
-      <c r="CB26" s="210"/>
+      <c r="BZ26" s="208"/>
+      <c r="CA26" s="208"/>
+      <c r="CB26" s="208"/>
     </row>
     <row r="27" spans="1:80" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="131" t="s">
@@ -10727,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="BB28" s="70">
-        <f t="shared" ref="BB28:BY28" si="13">COUNTIF(BB5:BB24,"*WE*")</f>
+        <f t="shared" ref="BB28:BG28" si="13">COUNTIF(BB5:BB24,"*WE*")</f>
         <v>1</v>
       </c>
       <c r="BC28" s="70">
@@ -11012,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="BB29" s="64">
-        <f t="shared" ref="BB29:BY29" si="21">COUNTIF(BB5:BB24,"*TD*")</f>
+        <f t="shared" ref="BB29:BH29" si="21">COUNTIF(BB5:BB24,"*TD*")</f>
         <v>1</v>
       </c>
       <c r="BC29" s="64">
@@ -11296,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="BB30" s="70">
-        <f t="shared" ref="BB30:BY30" si="29">COUNTIF(BB5:BB24,"*JM*")</f>
+        <f t="shared" ref="BB30:BG30" si="29">COUNTIF(BB5:BB24,"*JM*")</f>
         <v>1</v>
       </c>
       <c r="BC30" s="70">
@@ -11581,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="64">
-        <f t="shared" ref="BB31:BY31" si="37">COUNTIF(BB5:BB24,"*TP*")</f>
+        <f t="shared" ref="BB31:BG31" si="37">COUNTIF(BB5:BB24,"*TP*")</f>
         <v>1</v>
       </c>
       <c r="BC31" s="64">
@@ -11865,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="BB32" s="70">
-        <f t="shared" ref="BB32:BY32" si="46">COUNTIF(BB5:BB24,"*GR*")</f>
+        <f t="shared" ref="BB32:BG32" si="46">COUNTIF(BB5:BB24,"*GR*")</f>
         <v>1</v>
       </c>
       <c r="BC32" s="70">
@@ -12150,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="BB33" s="64">
-        <f t="shared" ref="BB33:BY33" si="55">COUNTIF(BB5:BB24,"*AU*")</f>
+        <f t="shared" ref="BB33:BG33" si="55">COUNTIF(BB5:BB24,"*AU*")</f>
         <v>1</v>
       </c>
       <c r="BC33" s="64">
@@ -12434,7 +12429,7 @@
         <v>1</v>
       </c>
       <c r="BB34" s="70">
-        <f t="shared" ref="BB34:BY34" si="63">COUNTIF(BB5:BB24,"*TM*")</f>
+        <f t="shared" ref="BB34:BG34" si="63">COUNTIF(BB5:BB24,"*TM*")</f>
         <v>1</v>
       </c>
       <c r="BC34" s="70">
@@ -12719,7 +12714,7 @@
         <v>1</v>
       </c>
       <c r="BB35" s="64">
-        <f t="shared" ref="BB35:BY35" si="71">COUNTIF(BB5:BB24,"*VC*")</f>
+        <f t="shared" ref="BB35:BH35" si="71">COUNTIF(BB5:BB24,"*VC*")</f>
         <v>1</v>
       </c>
       <c r="BC35" s="64">
@@ -13004,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="BB36" s="191">
-        <f t="shared" ref="BB36:BY36" si="79">COUNTIF(BB5:BB24,"*PS*")</f>
+        <f t="shared" ref="BB36:BG36" si="79">COUNTIF(BB5:BB24,"*PS*")</f>
         <v>4</v>
       </c>
       <c r="BC36" s="191">
@@ -13289,7 +13284,7 @@
         <v>2</v>
       </c>
       <c r="BB37" s="79">
-        <f t="shared" ref="BB37:BY37" si="87">COUNTIF(BB5:BB24,"*IE*")</f>
+        <f t="shared" ref="BB37:BG37" si="87">COUNTIF(BB5:BB24,"*IE*")</f>
         <v>4</v>
       </c>
       <c r="BC37" s="79">
@@ -13573,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="BB38" s="70">
-        <f t="shared" ref="BB38:BY38" si="95">COUNTIF(BB5:BB24,"*GE*")</f>
+        <f t="shared" ref="BB38:BG38" si="95">COUNTIF(BB5:BB24,"*GE*")</f>
         <v>1</v>
       </c>
       <c r="BC38" s="70">
@@ -13771,26 +13766,26 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="201" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="J10" s="205" t="s">
+      <c r="J10" s="203" t="s">
         <v>449</v>
       </c>
-      <c r="L10" s="205" t="s">
+      <c r="L10" s="203" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B11" s="204">
+      <c r="B11" s="202">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D11" s="205" t="s">
+      <c r="D11" s="203" t="s">
         <v>448</v>
       </c>
-      <c r="L11" s="205" t="s">
+      <c r="L11" s="203" t="s">
         <v>456</v>
       </c>
     </row>
@@ -13801,7 +13796,7 @@
       <c r="J12">
         <v>2</v>
       </c>
-      <c r="L12" s="205" t="s">
+      <c r="L12" s="203" t="s">
         <v>456</v>
       </c>
     </row>
@@ -13812,7 +13807,7 @@
       <c r="J13">
         <v>2</v>
       </c>
-      <c r="L13" s="205" t="s">
+      <c r="L13" s="203" t="s">
         <v>456</v>
       </c>
     </row>
@@ -13823,10 +13818,10 @@
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="L14" s="205"/>
+      <c r="L14" s="203"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L15" s="205"/>
+      <c r="L15" s="203"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
@@ -13835,7 +13830,7 @@
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="L16" s="205" t="s">
+      <c r="L16" s="203" t="s">
         <v>457</v>
       </c>
     </row>
@@ -13846,34 +13841,34 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="L17" s="205" t="s">
+      <c r="L17" s="203" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L18" s="205"/>
+      <c r="L18" s="203"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B19" s="204"/>
-      <c r="D19" s="205" t="s">
+      <c r="B19" s="202"/>
+      <c r="D19" s="203" t="s">
         <v>459</v>
       </c>
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="L19" s="205" t="s">
+      <c r="L19" s="203" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B20" s="204">
+      <c r="B20" s="202">
         <f>B11+TIME(0,SUM(J12:J17),0)</f>
         <v>0.79791666666666661</v>
       </c>
       <c r="D20" t="s">
         <v>358</v>
       </c>
-      <c r="L20" s="205" t="s">
+      <c r="L20" s="203" t="s">
         <v>464</v>
       </c>
     </row>
@@ -13881,7 +13876,7 @@
       <c r="D21" t="s">
         <v>461</v>
       </c>
-      <c r="L21" s="205" t="s">
+      <c r="L21" s="203" t="s">
         <v>465</v>
       </c>
     </row>
@@ -13889,7 +13884,7 @@
       <c r="D22" t="s">
         <v>462</v>
       </c>
-      <c r="L22" s="205" t="s">
+      <c r="L22" s="203" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13897,43 +13892,43 @@
       <c r="D23" t="s">
         <v>463</v>
       </c>
-      <c r="L23" s="205" t="s">
+      <c r="L23" s="203" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L24" s="205"/>
+      <c r="L24" s="203"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B25" s="204">
+      <c r="B25" s="202">
         <f>B20+TIME(0,SUM(J19:J23),0)</f>
         <v>0.80486111111111103</v>
       </c>
-      <c r="D25" s="205" t="s">
+      <c r="D25" s="203" t="s">
         <v>467</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
-      <c r="L25" s="205" t="s">
+      <c r="L25" s="203" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L26" s="205"/>
+      <c r="L26" s="203"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="204">
+      <c r="B27" s="202">
         <f>B25+TIME(0,SUM(J25),0)</f>
         <v>0.80694444444444435</v>
       </c>
-      <c r="D27" s="205" t="s">
+      <c r="D27" s="203" t="s">
         <v>470</v>
       </c>
       <c r="J27">
         <v>15</v>
       </c>
-      <c r="L27" s="205" t="s">
+      <c r="L27" s="203" t="s">
         <v>460</v>
       </c>
     </row>
@@ -13950,41 +13945,41 @@
       <c r="G28" t="s">
         <v>474</v>
       </c>
-      <c r="L28" s="205"/>
+      <c r="L28" s="203"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="206" t="s">
         <v>494</v>
       </c>
-      <c r="L29" s="205" t="str">
+      <c r="L29" s="203" t="str">
         <f>L20</f>
         <v>TM Nakamichi</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L30" s="205"/>
+      <c r="L30" s="203"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B31" s="204">
+      <c r="B31" s="202">
         <f>B27+TIME(0,SUM(J27),0)</f>
         <v>0.81736111111111098</v>
       </c>
-      <c r="D31" s="205" t="s">
+      <c r="D31" s="203" t="s">
         <v>475</v>
       </c>
-      <c r="L31" s="205"/>
+      <c r="L31" s="203"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D32" s="205" t="s">
+      <c r="D32" s="203" t="s">
         <v>169</v>
       </c>
-      <c r="I32" s="206" t="s">
+      <c r="I32" s="204" t="s">
         <v>476</v>
       </c>
       <c r="J32">
         <v>7</v>
       </c>
-      <c r="L32" s="205" t="s">
+      <c r="L32" s="203" t="s">
         <v>481</v>
       </c>
     </row>
@@ -13992,34 +13987,34 @@
       <c r="E33" t="s">
         <v>478</v>
       </c>
-      <c r="L33" s="205"/>
+      <c r="L33" s="203"/>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E34" t="s">
         <v>479</v>
       </c>
-      <c r="L34" s="205"/>
+      <c r="L34" s="203"/>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E35" t="s">
         <v>480</v>
       </c>
-      <c r="L35" s="205"/>
+      <c r="L35" s="203"/>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L36" s="205"/>
+      <c r="L36" s="203"/>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D37" s="205" t="s">
+      <c r="D37" s="203" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="206" t="s">
+      <c r="I37" s="204" t="s">
         <v>476</v>
       </c>
       <c r="J37">
         <v>7</v>
       </c>
-      <c r="L37" s="205" t="s">
+      <c r="L37" s="203" t="s">
         <v>482</v>
       </c>
     </row>
@@ -14027,114 +14022,114 @@
       <c r="E38" t="s">
         <v>478</v>
       </c>
-      <c r="L38" s="205"/>
+      <c r="L38" s="203"/>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
         <v>479</v>
       </c>
-      <c r="L39" s="205"/>
+      <c r="L39" s="203"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E40" t="s">
         <v>480</v>
       </c>
-      <c r="L40" s="205"/>
+      <c r="L40" s="203"/>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L41" s="205"/>
+      <c r="L41" s="203"/>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D42" s="205" t="s">
+      <c r="D42" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="I42" s="206"/>
-      <c r="L42" s="205"/>
+      <c r="I42" s="204"/>
+      <c r="L42" s="203"/>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E43" t="s">
         <v>478</v>
       </c>
-      <c r="L43" s="205"/>
+      <c r="L43" s="203"/>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E44" t="s">
         <v>479</v>
       </c>
-      <c r="L44" s="205"/>
+      <c r="L44" s="203"/>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E45" t="s">
         <v>480</v>
       </c>
-      <c r="L45" s="205"/>
+      <c r="L45" s="203"/>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="L46" s="205"/>
+      <c r="L46" s="203"/>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D47" s="205" t="s">
+      <c r="D47" s="203" t="s">
         <v>483</v>
       </c>
-      <c r="I47" s="206"/>
-      <c r="L47" s="205"/>
+      <c r="I47" s="204"/>
+      <c r="L47" s="203"/>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.4">
       <c r="E48" t="s">
         <v>478</v>
       </c>
-      <c r="L48" s="205"/>
+      <c r="L48" s="203"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E49" t="s">
         <v>479</v>
       </c>
-      <c r="L49" s="205"/>
+      <c r="L49" s="203"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.4">
       <c r="E50" t="s">
         <v>480</v>
       </c>
-      <c r="L50" s="205"/>
+      <c r="L50" s="203"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D51" s="208" t="s">
+      <c r="D51" s="206" t="s">
         <v>494</v>
       </c>
-      <c r="L51" s="205" t="str">
+      <c r="L51" s="203" t="str">
         <f>L20</f>
         <v>TM Nakamichi</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D52" s="208"/>
-      <c r="L52" s="205"/>
+      <c r="D52" s="206"/>
+      <c r="L52" s="203"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B53" s="204">
+      <c r="B53" s="202">
         <f>B31+TIME(0,SUM(J32:J50),0)</f>
         <v>0.82708333333333317</v>
       </c>
-      <c r="D53" s="207" t="s">
+      <c r="D53" s="205" t="s">
         <v>484</v>
       </c>
       <c r="J53">
         <v>5</v>
       </c>
-      <c r="L53" s="205"/>
+      <c r="L53" s="203"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L54" s="205"/>
+      <c r="L54" s="203"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B55" s="204">
+      <c r="B55" s="202">
         <f>B53+TIME(0,SUM(J53),0)</f>
         <v>0.83055555555555538</v>
       </c>
-      <c r="D55" s="205" t="s">
+      <c r="D55" s="203" t="s">
         <v>485</v>
       </c>
-      <c r="L55" s="205"/>
+      <c r="L55" s="203"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
@@ -14143,7 +14138,7 @@
       <c r="J56">
         <v>5</v>
       </c>
-      <c r="L56" s="205" t="s">
+      <c r="L56" s="203" t="s">
         <v>487</v>
       </c>
     </row>
@@ -14151,13 +14146,13 @@
       <c r="D57" t="s">
         <v>488</v>
       </c>
-      <c r="I57" s="206" t="s">
+      <c r="I57" s="204" t="s">
         <v>492</v>
       </c>
       <c r="J57">
         <v>3</v>
       </c>
-      <c r="L57" s="205" t="s">
+      <c r="L57" s="203" t="s">
         <v>456</v>
       </c>
     </row>
@@ -14165,13 +14160,13 @@
       <c r="D58" t="s">
         <v>489</v>
       </c>
-      <c r="I58" s="206" t="s">
+      <c r="I58" s="204" t="s">
         <v>492</v>
       </c>
       <c r="J58">
         <v>3</v>
       </c>
-      <c r="L58" s="205" t="s">
+      <c r="L58" s="203" t="s">
         <v>493</v>
       </c>
     </row>
@@ -14179,44 +14174,44 @@
       <c r="D59" t="s">
         <v>490</v>
       </c>
-      <c r="L59" s="205"/>
+      <c r="L59" s="203"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D60" t="s">
         <v>491</v>
       </c>
-      <c r="L60" s="205"/>
+      <c r="L60" s="203"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D61" s="208" t="s">
+      <c r="D61" s="206" t="s">
         <v>494</v>
       </c>
-      <c r="L61" s="205" t="str">
+      <c r="L61" s="203" t="str">
         <f>L20</f>
         <v>TM Nakamichi</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L62" s="205"/>
+      <c r="L62" s="203"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B63" s="204">
+      <c r="B63" s="202">
         <f>B55+TIME(0,SUM(J56:J60),0)</f>
         <v>0.83819444444444424</v>
       </c>
-      <c r="D63" s="205" t="s">
+      <c r="D63" s="203" t="s">
         <v>495</v>
       </c>
       <c r="J63">
         <v>5</v>
       </c>
-      <c r="L63" s="205"/>
+      <c r="L63" s="203"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>455</v>
       </c>
-      <c r="L64" s="205" t="str">
+      <c r="L64" s="203" t="str">
         <f>L17</f>
         <v>TM Yokichi Watanabe</v>
       </c>
@@ -14225,7 +14220,7 @@
       <c r="D65" t="s">
         <v>462</v>
       </c>
-      <c r="L65" s="205" t="str">
+      <c r="L65" s="203" t="str">
         <f>L22</f>
         <v>TM Kawai</v>
       </c>
@@ -14234,7 +14229,7 @@
       <c r="D66" t="s">
         <v>463</v>
       </c>
-      <c r="L66" s="205" t="str">
+      <c r="L66" s="203" t="str">
         <f>L23</f>
         <v>TM Kawai</v>
       </c>
@@ -14243,208 +14238,208 @@
       <c r="D67" t="s">
         <v>461</v>
       </c>
-      <c r="L67" s="205" t="str">
+      <c r="L67" s="203" t="str">
         <f>L21</f>
         <v>TM Nishioka</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="L68" s="205"/>
+      <c r="L68" s="203"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B69" s="204">
+      <c r="B69" s="202">
         <f>B63+TIME(0,SUM(J63:J67),0)</f>
         <v>0.84166666666666645</v>
       </c>
-      <c r="D69" s="209" t="s">
+      <c r="D69" s="207" t="s">
         <v>496</v>
       </c>
-      <c r="L69" s="205"/>
+      <c r="L69" s="203"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="D70" s="209" t="s">
+      <c r="D70" s="207" t="s">
         <v>497</v>
       </c>
-      <c r="L70" s="205" t="str">
+      <c r="L70" s="203" t="str">
         <f>L11</f>
         <v>TM Takimoto</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B72" s="205" t="s">
+      <c r="B72" s="203" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B73" s="219" t="s">
+      <c r="B73" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="216" t="s">
+      <c r="C73" s="214" t="s">
         <v>487</v>
       </c>
       <c r="D73" s="168"/>
-      <c r="E73" s="219" t="s">
+      <c r="E73" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="F73" s="216" t="s">
+      <c r="F73" s="214" t="s">
         <v>464</v>
       </c>
       <c r="G73" s="168"/>
-      <c r="H73" s="219" t="s">
+      <c r="H73" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="I73" s="216" t="s">
+      <c r="I73" s="214" t="s">
         <v>477</v>
       </c>
       <c r="J73" s="168"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B74" s="219" t="s">
+      <c r="B74" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="216" t="s">
+      <c r="C74" s="214" t="s">
         <v>500</v>
       </c>
       <c r="D74" s="168"/>
-      <c r="E74" s="219" t="s">
+      <c r="E74" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="F74" s="216" t="s">
+      <c r="F74" s="214" t="s">
         <v>466</v>
       </c>
       <c r="G74" s="168"/>
-      <c r="H74" s="219" t="s">
+      <c r="H74" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="I74" s="216" t="s">
+      <c r="I74" s="214" t="s">
         <v>505</v>
       </c>
       <c r="J74" s="168"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B75" s="219" t="s">
+      <c r="B75" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="216" t="s">
+      <c r="C75" s="214" t="s">
         <v>457</v>
       </c>
       <c r="D75" s="168"/>
-      <c r="E75" s="219" t="s">
+      <c r="E75" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="F75" s="216" t="s">
+      <c r="F75" s="214" t="s">
         <v>493</v>
       </c>
       <c r="G75" s="168"/>
-      <c r="H75" s="219" t="s">
+      <c r="H75" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="I75" s="216" t="s">
+      <c r="I75" s="214" t="s">
         <v>506</v>
       </c>
       <c r="J75" s="168"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B76" s="219" t="s">
+      <c r="B76" s="217" t="s">
         <v>469</v>
       </c>
-      <c r="C76" s="216" t="s">
+      <c r="C76" s="214" t="s">
         <v>460</v>
       </c>
       <c r="D76" s="168"/>
-      <c r="E76" s="220" t="s">
+      <c r="E76" s="218" t="s">
         <v>483</v>
       </c>
-      <c r="F76" s="216" t="s">
+      <c r="F76" s="214" t="s">
         <v>456</v>
       </c>
       <c r="G76" s="168"/>
-      <c r="H76" s="219" t="s">
+      <c r="H76" s="217" t="s">
         <v>504</v>
       </c>
-      <c r="I76" s="216" t="s">
+      <c r="I76" s="214" t="s">
         <v>458</v>
       </c>
       <c r="J76" s="168"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B77" s="219" t="s">
+      <c r="B77" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="216" t="s">
+      <c r="C77" s="214" t="s">
         <v>460</v>
       </c>
       <c r="D77" s="168"/>
-      <c r="E77" s="219" t="s">
+      <c r="E77" s="217" t="s">
         <v>151</v>
       </c>
-      <c r="F77" s="216" t="s">
+      <c r="F77" s="214" t="s">
         <v>482</v>
       </c>
       <c r="G77" s="168"/>
-      <c r="H77" s="211"/>
-      <c r="I77" s="211"/>
-      <c r="J77" s="212"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="210"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B78" s="219" t="s">
+      <c r="B78" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="216" t="s">
+      <c r="C78" s="214" t="s">
         <v>501</v>
       </c>
       <c r="D78" s="168"/>
-      <c r="E78" s="217"/>
-      <c r="F78" s="210"/>
-      <c r="G78" s="210"/>
-      <c r="H78" s="210"/>
-      <c r="I78" s="210"/>
-      <c r="J78" s="213"/>
+      <c r="E78" s="215"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="211"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B79" s="219" t="s">
+      <c r="B79" s="217" t="s">
         <v>499</v>
       </c>
-      <c r="C79" s="216" t="s">
+      <c r="C79" s="214" t="s">
         <v>502</v>
       </c>
       <c r="D79" s="168"/>
-      <c r="E79" s="217"/>
-      <c r="F79" s="210"/>
-      <c r="G79" s="210"/>
-      <c r="H79" s="210"/>
-      <c r="I79" s="210"/>
-      <c r="J79" s="213"/>
+      <c r="E79" s="215"/>
+      <c r="F79" s="208"/>
+      <c r="G79" s="208"/>
+      <c r="H79" s="208"/>
+      <c r="I79" s="208"/>
+      <c r="J79" s="211"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B80" s="219" t="s">
+      <c r="B80" s="217" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="216" t="s">
+      <c r="C80" s="214" t="s">
         <v>460</v>
       </c>
       <c r="D80" s="168"/>
-      <c r="E80" s="217"/>
-      <c r="F80" s="210"/>
-      <c r="G80" s="210"/>
-      <c r="H80" s="210"/>
-      <c r="I80" s="210"/>
-      <c r="J80" s="213"/>
+      <c r="E80" s="215"/>
+      <c r="F80" s="208"/>
+      <c r="G80" s="208"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="208"/>
+      <c r="J80" s="211"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="219" t="s">
+      <c r="B81" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="216" t="s">
+      <c r="C81" s="214" t="s">
         <v>503</v>
       </c>
       <c r="D81" s="168"/>
-      <c r="E81" s="218"/>
-      <c r="F81" s="214"/>
-      <c r="G81" s="214"/>
-      <c r="H81" s="214"/>
-      <c r="I81" s="214"/>
-      <c r="J81" s="215"/>
+      <c r="E81" s="216"/>
+      <c r="F81" s="212"/>
+      <c r="G81" s="212"/>
+      <c r="H81" s="212"/>
+      <c r="I81" s="212"/>
+      <c r="J81" s="213"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
